--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId1"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId2"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId3"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId4"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId5"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId6"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId7"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId8"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId9"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId10"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId11"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId12"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId13"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId14"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId15"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId16"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId17"/>
-    <sheet name="Suites" sheetId="22" r:id="rId18"/>
-    <sheet name="IC" sheetId="23" r:id="rId19"/>
+    <sheet name="IC" sheetId="23" r:id="rId1"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId2"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId3"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId4"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId5"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId6"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId7"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId8"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId9"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId10"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId11"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId12"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId13"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId14"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId15"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId16"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId17"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId18"/>
+    <sheet name="Suites" sheetId="22" r:id="rId19"/>
     <sheet name="PayUPagePayment++" sheetId="31" r:id="rId20"/>
     <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId21"/>
     <sheet name="deliveryPopulation++" sheetId="34" r:id="rId22"/>
@@ -60,7 +60,7 @@
     <sheet name="HiFiCorp" sheetId="30" r:id="rId51"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">IC!$A$1:$Q$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="642">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2079,9 +2079,6 @@
   </si>
   <si>
     <t>HP 15 i3 8130U 4GB 1TB Black Notebook</t>
-  </si>
-  <si>
-    <t>0005234806</t>
   </si>
 </sst>
 </file>
@@ -3777,2695 +3774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="85"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="84">
-        <v>52</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="84">
-        <v>53</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="83">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="83">
-        <v>70</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="36">
-        <v>2</v>
-      </c>
-      <c r="F2" s="36">
-        <v>3</v>
-      </c>
-      <c r="G2" s="36">
-        <v>34221</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="E3" s="36">
-        <v>2</v>
-      </c>
-      <c r="F3" s="36">
-        <v>3</v>
-      </c>
-      <c r="G3" s="36">
-        <v>34221</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="36"/>
-    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
-      <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
-      <formula1>"African,Asian,Coloured,White,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
-      <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
-      <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
-      <formula1>"Female,Male"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="29">
-        <v>37</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="29">
-        <v>38</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H2" sqref="H2"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7109375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="30">
-      <c r="A1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="16">
-        <v>9</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="16">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="16">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="16">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="16">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="16">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="127">
-        <v>1</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>508</v>
-      </c>
-      <c r="C8" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="127">
-        <v>2</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>509</v>
-      </c>
-      <c r="C9" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="127">
-        <v>3</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="127">
-        <v>4</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="127">
-        <v>5</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="127">
-        <v>6</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>513</v>
-      </c>
-      <c r="C13" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="127">
-        <v>7</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>514</v>
-      </c>
-      <c r="C14" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="127">
-        <v>8</v>
-      </c>
-      <c r="B15" s="127" t="s">
-        <v>515</v>
-      </c>
-      <c r="C15" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="127">
-        <v>15</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="127">
-        <v>16</v>
-      </c>
-      <c r="B17" s="127" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="127">
-        <v>17</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="127">
-        <v>18</v>
-      </c>
-      <c r="B19" s="127" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="127">
-        <v>19</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="127">
-        <v>20</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="127">
-        <v>31</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="134">
-        <v>39</v>
-      </c>
-      <c r="B23" s="134" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="134">
-        <v>40</v>
-      </c>
-      <c r="B24" s="134" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="134">
-        <v>41</v>
-      </c>
-      <c r="B25" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="117">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="50" priority="47"/>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
-      <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="16">
-        <v>15</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="16">
-        <v>16</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="16">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="16">
-        <v>18</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="16">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="16">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="127">
-        <v>1</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>508</v>
-      </c>
-      <c r="C8" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="127">
-        <v>2</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>509</v>
-      </c>
-      <c r="C9" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="127">
-        <v>3</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="127">
-        <v>4</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="127">
-        <v>5</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="127">
-        <v>6</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>513</v>
-      </c>
-      <c r="C13" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="127">
-        <v>7</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>514</v>
-      </c>
-      <c r="C14" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="127">
-        <v>8</v>
-      </c>
-      <c r="B15" s="127" t="s">
-        <v>515</v>
-      </c>
-      <c r="C15" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="127">
-        <v>9</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>516</v>
-      </c>
-      <c r="C16" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="127">
-        <v>10</v>
-      </c>
-      <c r="B17" s="127" t="s">
-        <v>530</v>
-      </c>
-      <c r="C17" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="127">
-        <v>11</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>531</v>
-      </c>
-      <c r="C18" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="127">
-        <v>12</v>
-      </c>
-      <c r="B19" s="127" t="s">
-        <v>532</v>
-      </c>
-      <c r="C19" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="127">
-        <v>13</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>533</v>
-      </c>
-      <c r="C20" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="127">
-        <v>14</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>534</v>
-      </c>
-      <c r="C21" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="127">
-        <v>31</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="134">
-        <v>39</v>
-      </c>
-      <c r="B23" s="134" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="134">
-        <v>40</v>
-      </c>
-      <c r="B24" s="134" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="134">
-        <v>41</v>
-      </c>
-      <c r="B25" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="117">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="45" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="44" priority="29"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H2" sqref="H2"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="11" customFormat="1">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="11" customFormat="1">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="11" customFormat="1">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
-      <c r="A20" s="21">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="16">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="47">
-        <v>39</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="47">
-        <v>40</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="47">
-        <v>41</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9113,25 +6428,25 @@
   </sheetData>
   <autoFilter ref="A1:Q71"/>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="41" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="39" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="38" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B49 B1:B31 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="73"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
@@ -9366,147 +6681,2842 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" s="36">
+        <v>2313</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="36">
+        <v>2313</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="36">
+        <v>2</v>
+      </c>
+      <c r="F2" s="36">
+        <v>3</v>
+      </c>
+      <c r="G2" s="36">
+        <v>34221</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2</v>
+      </c>
+      <c r="F3" s="36">
+        <v>3</v>
+      </c>
+      <c r="G3" s="36">
+        <v>34221</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="36"/>
+    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+      <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+      <formula1>"African,Asian,Coloured,White,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+      <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+      <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
+      <formula1>"Female,Male"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="80" t="s">
-        <v>431</v>
+      <c r="D1" s="35" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="79">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="29">
+        <v>37</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="29">
+        <v>38</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H2" sqref="H2"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30">
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="16">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="16">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="16">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="16">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="16">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="16">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="127">
+        <v>1</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="127">
+        <v>2</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="127">
+        <v>3</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="127">
+        <v>4</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="127">
+        <v>5</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="127">
+        <v>6</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="127">
+        <v>7</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="127">
+        <v>8</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="127">
+        <v>15</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="127">
+        <v>16</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="127">
+        <v>17</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="127">
+        <v>18</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="127">
+        <v>19</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="127">
+        <v>20</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="127">
+        <v>31</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="134">
+        <v>39</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="134">
+        <v>40</v>
+      </c>
+      <c r="B24" s="134" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="134">
+        <v>41</v>
+      </c>
+      <c r="B25" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="117">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B21">
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A21">
+    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
+      <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="16">
+        <v>15</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="16">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="16">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="16">
+        <v>18</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="16">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="16">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="127">
+        <v>1</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="127">
+        <v>2</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="127">
+        <v>3</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="127">
+        <v>4</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="127">
+        <v>5</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="127">
+        <v>6</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="127">
+        <v>7</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="127">
+        <v>8</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="127">
+        <v>9</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="127">
+        <v>10</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="127">
+        <v>11</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="127">
+        <v>12</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="127">
+        <v>13</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="C20" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="127">
+        <v>14</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="127">
+        <v>31</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="134">
+        <v>39</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="134">
+        <v>40</v>
+      </c>
+      <c r="B24" s="134" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="134">
+        <v>41</v>
+      </c>
+      <c r="B25" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="117">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B21">
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A21">
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H2" sqref="H2"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16">
+        <v>31</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="47">
+        <v>39</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="47">
+        <v>40</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="47">
+        <v>41</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="84">
         <v>52</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="79">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="84">
         <v>53</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="57">
         <v>54</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="78">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="83">
         <v>55</v>
       </c>
       <c r="B5" s="67" t="s">
         <v>619</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="57">
         <v>56</v>
       </c>
       <c r="B6" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="C6" s="80">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="57">
-        <v>56</v>
+      <c r="C6" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="83">
+        <v>70</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C7" s="80">
-        <v>2</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="78">
-        <v>70</v>
-      </c>
-      <c r="B8" s="67" t="s">
         <v>634</v>
       </c>
-      <c r="C8" s="80">
-        <v>1</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>432</v>
+      <c r="C7" s="85" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="81" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11127,7 +11137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -11685,7 +11695,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11734,9 +11744,6 @@
       <c r="E2" s="16">
         <v>240</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>642</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16">
@@ -11754,7 +11761,6 @@
       <c r="E3" s="16">
         <v>240</v>
       </c>
-      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="16">
@@ -11772,7 +11778,6 @@
       <c r="E4" s="16">
         <v>240</v>
       </c>
-      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16">
@@ -11790,7 +11795,6 @@
       <c r="E5" s="16">
         <v>240</v>
       </c>
-      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16">
@@ -11808,7 +11812,6 @@
       <c r="E6" s="16">
         <v>240</v>
       </c>
-      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16">
@@ -11826,9 +11829,6 @@
       <c r="E7" s="16">
         <v>240</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>642</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16">
@@ -11846,7 +11846,6 @@
       <c r="E8" s="16">
         <v>240</v>
       </c>
-      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="16">
@@ -11864,7 +11863,6 @@
       <c r="E9" s="16">
         <v>240</v>
       </c>
-      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16">
@@ -11882,7 +11880,6 @@
       <c r="E10" s="16">
         <v>240</v>
       </c>
-      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="42" t="s">
@@ -11900,7 +11897,6 @@
       <c r="E11" s="16">
         <v>240</v>
       </c>
-      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42" t="s">
@@ -11918,7 +11914,6 @@
       <c r="E12" s="16">
         <v>240</v>
       </c>
-      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="42" t="s">
@@ -11936,7 +11931,6 @@
       <c r="E13" s="16">
         <v>240</v>
       </c>
-      <c r="F13" s="43"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
@@ -12999,205 +12993,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="77"/>
+    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="76">
+      <c r="D1" s="80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="79">
         <v>52</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G2" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="76">
+      <c r="D2" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="79">
         <v>53</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="57">
         <v>54</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="57">
+      <c r="D4" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="78">
         <v>55</v>
       </c>
       <c r="B5" s="67" t="s">
         <v>619</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="57">
         <v>56</v>
       </c>
       <c r="B6" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="75">
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="57">
+        <v>56</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="80">
+        <v>2</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="78">
         <v>70</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B8" s="67" t="s">
         <v>634</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="75">
-        <v>11</v>
+      <c r="C8" s="80">
+        <v>1</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"ExistingUser,logedOn_user"</formula1>
+      <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13207,10 +13141,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13435,7 +13369,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>212</v>
+        <v>602</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>407</v>
@@ -15006,395 +14940,205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="45">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="51">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="45">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="45">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="51">
-        <v>1</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="51">
-        <v>1</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="45">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="51">
-        <v>1</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="45">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="C11" s="51">
-        <v>1</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="45">
+      <c r="D1" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="76">
+        <v>52</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="77">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="51">
-        <v>1</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="45">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="45">
-        <v>13</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="51">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="45">
-        <v>14</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="45">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="51">
-        <v>1</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="45">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="51">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="45">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="51">
-        <v>1</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="45">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="51">
-        <v>1</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="45">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="51">
-        <v>1</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="45">
-        <v>20</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="51">
-        <v>1</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="45">
-        <v>31</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="51">
-        <v>1</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="47">
-        <v>39</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="51">
-        <v>1</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="47">
-        <v>40</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="51">
-        <v>1</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="47">
-        <v>41</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="51">
-        <v>1</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>400</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="76">
+        <v>53</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="75">
+        <v>70</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="75">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="77" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25">
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="73" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18055,94 +17799,395 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="38">
-        <v>47</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38">
-        <v>48</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="38">
-        <v>49</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>399</v>
+      <c r="D1" s="51" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="51">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="51">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="51">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="51">
+        <v>1</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="51">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="51">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="51">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="51">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="45">
+        <v>31</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="47">
+        <v>39</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="47">
+        <v>40</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="47">
+        <v>41</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="51">
+        <v>1</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+  <conditionalFormatting sqref="A2:A21">
+    <cfRule type="duplicateValues" dxfId="71" priority="7"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="duplicateValues" dxfId="70" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18357,6 +18402,100 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="38">
+        <v>47</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38">
+        <v>48</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38">
+        <v>49</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18409,16 +18548,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -18569,10 +18708,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -18586,7 +18725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -18697,10 +18836,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -18714,164 +18853,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" s="36">
-        <v>2313</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I3" s="36">
-        <v>2313</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -2078,7 +2078,7 @@
     <t>9410084800087</t>
   </si>
   <si>
-    <t>HP 15 i3 8130U 4GB 1TB Black Notebook</t>
+    <t>Access#1</t>
   </si>
 </sst>
 </file>
@@ -3777,10 +3777,10 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5547,7 +5547,7 @@
         <v>199</v>
       </c>
       <c r="F43" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="133" t="s">
         <v>292</v>
@@ -5638,7 +5638,7 @@
         <v>199</v>
       </c>
       <c r="F46" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="136" t="s">
         <v>295</v>
@@ -11137,7 +11137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -12179,7 +12179,7 @@
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12237,10 +12237,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="16">
-        <v>225505</v>
+        <v>225567</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>156</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12560,10 +12560,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="16">
-        <v>225505</v>
+        <v>225567</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>156</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -13140,11 +13140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13209,7 +13209,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>407</v>

--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="29"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -3776,11 +3776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="E27" s="127"/>
       <c r="F27" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="129" t="s">
         <v>31</v>
@@ -13140,11 +13140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19006,21 +19006,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19043,6 +19043,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19057,12 +19065,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3777,10 +3777,10 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="E27" s="127"/>
       <c r="F27" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="129" t="s">
         <v>31</v>
@@ -19006,21 +19006,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19043,14 +19043,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19065,4 +19057,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3777,10 +3777,10 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3913,7 +3913,7 @@
         <v>507</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>108</v>
@@ -5638,7 +5638,7 @@
         <v>199</v>
       </c>
       <c r="F46" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="136" t="s">
         <v>295</v>
@@ -19006,21 +19006,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19043,6 +19043,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19057,12 +19065,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="31" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="643">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2079,6 +2079,9 @@
   </si>
   <si>
     <t>Access#1</t>
+  </si>
+  <si>
+    <t>CartTotal</t>
   </si>
 </sst>
 </file>
@@ -3776,11 +3779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14615,10 +14618,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14626,9 +14629,10 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="104" t="s">
         <v>34</v>
       </c>
@@ -14638,8 +14642,11 @@
       <c r="C1" s="104" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="123" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="105">
         <v>57</v>
       </c>
@@ -14650,7 +14657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="105">
         <v>58</v>
       </c>
@@ -14661,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="105">
         <v>59</v>
       </c>
@@ -14674,6 +14681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19006,21 +19014,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19043,14 +19051,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19065,4 +19065,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F7609-F9DD-4AEB-9F6A-A2EEEB401CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07600250-A31D-457B-ABDB-DBF2428F8B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="29" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -3867,11 +3867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -13316,13 +13316,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -13337,11 +13337,11 @@
     <col min="8" max="8" width="8.7265625" style="86" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.7265625" style="86" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.26953125" style="86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" style="86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="86" customWidth="1"/>
     <col min="12" max="16384" width="9.1796875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="82" t="s">
         <v>34</v>
       </c>
@@ -13372,8 +13372,11 @@
       <c r="J1" s="82" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="86" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="87">
         <v>26</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="87">
         <v>27</v>
       </c>
@@ -13437,7 +13440,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29">
+    <row r="4" spans="1:11" ht="29">
       <c r="A4" s="87">
         <v>28</v>
       </c>
@@ -13469,7 +13472,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="87">
         <v>29</v>
       </c>
@@ -13501,7 +13504,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="87">
         <v>30</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="87">
         <v>31</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="87">
         <v>35</v>
       </c>
@@ -13597,7 +13600,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="87">
         <v>36</v>
       </c>
@@ -13629,7 +13632,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="86">
         <v>39</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="86">
         <v>40</v>
       </c>
@@ -13693,7 +13696,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="86">
         <v>41</v>
       </c>
@@ -13725,7 +13728,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="81">
         <v>53</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="57">
         <v>54</v>
       </c>
@@ -13789,7 +13792,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="89">
         <v>55</v>
       </c>
@@ -13821,7 +13824,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="89">
         <v>56</v>
       </c>
@@ -14793,10 +14796,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14806,7 +14809,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="104" t="s">
         <v>34</v>
       </c>
@@ -14816,11 +14819,8 @@
       <c r="C1" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="105">
         <v>57</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="105">
         <v>58</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="105">
         <v>59</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="115" customFormat="1">
+    <row r="5" spans="1:3" s="115" customFormat="1">
       <c r="A5" s="109">
         <v>31</v>
       </c>

--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="31" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -3779,11 +3779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6032,7 +6032,7 @@
       <c r="A59" s="69">
         <v>58</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="68" t="s">
         <v>623</v>
       </c>
       <c r="C59" s="69">
@@ -14620,7 +14620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -19014,21 +19014,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19051,6 +19051,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19065,12 +19073,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -1,89 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E383972B-EDA6-4C97-B6D0-9C72F613C577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IC" sheetId="23" r:id="rId1"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId2"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId3"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId4"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId5"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId6"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId7"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId8"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId9"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId10"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId11"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId12"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId13"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId14"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId15"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId16"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId17"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId18"/>
-    <sheet name="Suites" sheetId="22" r:id="rId19"/>
-    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId20"/>
-    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId21"/>
-    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId22"/>
-    <sheet name="RetrieveCustomerDetailsOld++" sheetId="70" r:id="rId23"/>
-    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId24"/>
-    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId25"/>
-    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId26"/>
-    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId27"/>
-    <sheet name="Login_magento++" sheetId="35" r:id="rId28"/>
-    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId29"/>
-    <sheet name="ProductSearch++" sheetId="33" r:id="rId30"/>
-    <sheet name="IC_WishlistToCart++" sheetId="71" r:id="rId31"/>
-    <sheet name="Products_Category" sheetId="69" r:id="rId32"/>
-    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId33"/>
-    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId34"/>
-    <sheet name="ic_login++" sheetId="44" r:id="rId35"/>
-    <sheet name="ClearCart++" sheetId="73" r:id="rId36"/>
-    <sheet name="ic_invalidCredslogin++" sheetId="74" r:id="rId37"/>
-    <sheet name="SendWishlistToEmail++" sheetId="75" r:id="rId38"/>
-    <sheet name="icEmailWishlistverification++" sheetId="76" r:id="rId39"/>
-    <sheet name="DB_connection_master++" sheetId="47" r:id="rId40"/>
-    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId41"/>
-    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId42"/>
-    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId43"/>
-    <sheet name="accountCreation++" sheetId="39" r:id="rId44"/>
-    <sheet name="Russels" sheetId="26" r:id="rId45"/>
-    <sheet name="Login++" sheetId="25" r:id="rId46"/>
-    <sheet name="Bradlows" sheetId="27" r:id="rId47"/>
-    <sheet name="Rochester" sheetId="28" r:id="rId48"/>
-    <sheet name="Preferred Store" sheetId="68" r:id="rId49"/>
-    <sheet name="Sleepmasters" sheetId="29" r:id="rId50"/>
-    <sheet name="HiFiCorp" sheetId="30" r:id="rId51"/>
+    <sheet name="parrallel_ic_Login++" sheetId="77" r:id="rId1"/>
+    <sheet name="IC" sheetId="23" r:id="rId2"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId3"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId4"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId5"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId6"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId7"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId8"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId9"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId10"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId11"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId12"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId13"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId14"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId15"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId16"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId17"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId18"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId19"/>
+    <sheet name="Suites" sheetId="22" r:id="rId20"/>
+    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId21"/>
+    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId22"/>
+    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId23"/>
+    <sheet name="RetrieveCustomerDetailsOld++" sheetId="70" r:id="rId24"/>
+    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId25"/>
+    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId26"/>
+    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId27"/>
+    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId28"/>
+    <sheet name="Login_magento++" sheetId="35" r:id="rId29"/>
+    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId30"/>
+    <sheet name="ProductSearch++" sheetId="33" r:id="rId31"/>
+    <sheet name="IC_WishlistToCart++" sheetId="71" r:id="rId32"/>
+    <sheet name="Products_Category" sheetId="69" r:id="rId33"/>
+    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId34"/>
+    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId35"/>
+    <sheet name="ic_login++" sheetId="44" r:id="rId36"/>
+    <sheet name="ClearCart++" sheetId="73" r:id="rId37"/>
+    <sheet name="ic_invalidCredslogin++" sheetId="74" r:id="rId38"/>
+    <sheet name="SendWishlistToEmail++" sheetId="75" r:id="rId39"/>
+    <sheet name="icEmailWishlistverification++" sheetId="76" r:id="rId40"/>
+    <sheet name="DB_connection_master++" sheetId="47" r:id="rId41"/>
+    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId42"/>
+    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId43"/>
+    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId44"/>
+    <sheet name="accountCreation++" sheetId="39" r:id="rId45"/>
+    <sheet name="Russels" sheetId="26" r:id="rId46"/>
+    <sheet name="Login++" sheetId="25" r:id="rId47"/>
+    <sheet name="Bradlows" sheetId="27" r:id="rId48"/>
+    <sheet name="Rochester" sheetId="28" r:id="rId49"/>
+    <sheet name="Preferred Store" sheetId="68" r:id="rId50"/>
+    <sheet name="Sleepmasters" sheetId="29" r:id="rId51"/>
+    <sheet name="HiFiCorp" sheetId="30" r:id="rId52"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$Q$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IC!$A$1:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -122,12 +113,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="654">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2079,12 +2070,48 @@
   </si>
   <si>
     <t>HP 15 i3 8130U 4GB 1TB Black Notebook</t>
+  </si>
+  <si>
+    <t>Validate_Parallel_Login_to_IC</t>
+  </si>
+  <si>
+    <t>parrallel_ic_Login</t>
+  </si>
+  <si>
+    <t>Email_Chrome_User</t>
+  </si>
+  <si>
+    <t>Password_Chrome_User</t>
+  </si>
+  <si>
+    <t>FirstName_Chrome_User</t>
+  </si>
+  <si>
+    <t>Email_Firefox_User</t>
+  </si>
+  <si>
+    <t>Password_Firefox_User</t>
+  </si>
+  <si>
+    <t>FirstName_Firefox_User</t>
+  </si>
+  <si>
+    <t>RobertWalton@dayrep.com</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>DavidDHasting@armyspy.com</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2268,7 +2295,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2615,15 +2642,30 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3530,7 +3572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3563,9 +3605,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3598,6 +3657,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3773,2916 +3849,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06053B8-6DF3-44FB-9BCF-EBFA5CEA1EB4}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" style="62" customWidth="1"/>
-    <col min="2" max="2" width="93.5703125" style="134" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="134" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="134" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="134" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="134" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.140625" style="134" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="134" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="134"/>
+    <col min="1" max="1" width="5" style="115" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="115" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="115" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="115" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="115" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="115" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="115" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="115" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="124" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="124" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="30">
-      <c r="A2" s="141">
-        <v>1</v>
-      </c>
-      <c r="B2" s="127" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="139" t="s">
-        <v>305</v>
-      </c>
-      <c r="J2" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-    </row>
-    <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="142">
-        <v>2</v>
-      </c>
-      <c r="B3" s="127" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="139" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-    </row>
-    <row r="4" spans="1:17" ht="30">
-      <c r="A4" s="141">
-        <v>3</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="139" t="s">
-        <v>305</v>
-      </c>
-      <c r="J4" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-    </row>
-    <row r="5" spans="1:17" ht="30">
-      <c r="A5" s="141">
-        <v>4</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F5" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="139" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="K5" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-    </row>
-    <row r="6" spans="1:17" ht="30">
-      <c r="A6" s="141">
-        <v>5</v>
-      </c>
-      <c r="B6" s="127" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="139" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="K6" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-    </row>
-    <row r="7" spans="1:17" ht="30">
-      <c r="A7" s="61">
-        <v>6</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J7" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-    </row>
-    <row r="8" spans="1:17" ht="30">
-      <c r="A8" s="61">
-        <v>7</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F8" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-    </row>
-    <row r="9" spans="1:17" ht="30">
-      <c r="A9" s="61">
-        <v>8</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J9" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-    </row>
-    <row r="10" spans="1:17" ht="30">
-      <c r="A10" s="141">
-        <v>9</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J10" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-    </row>
-    <row r="11" spans="1:17" ht="30">
-      <c r="A11" s="141">
-        <v>10</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>530</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J11" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-    </row>
-    <row r="12" spans="1:17" ht="30">
-      <c r="A12" s="141">
-        <v>11</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>531</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J12" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-    </row>
-    <row r="13" spans="1:17" ht="30">
-      <c r="A13" s="61">
-        <v>12</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>532</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="I13" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J13" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-    </row>
-    <row r="14" spans="1:17" ht="30">
-      <c r="A14" s="61">
-        <v>13</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>533</v>
-      </c>
-      <c r="E14" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="I14" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J14" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-    </row>
-    <row r="15" spans="1:17" ht="30">
-      <c r="A15" s="61">
-        <v>14</v>
-      </c>
-      <c r="B15" s="127" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>562</v>
-      </c>
-      <c r="E15" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="J15" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-    </row>
-    <row r="16" spans="1:17" ht="30">
-      <c r="A16" s="142">
-        <v>15</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>561</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="I16" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-    </row>
-    <row r="17" spans="1:17" ht="30">
-      <c r="A17" s="61">
-        <v>16</v>
-      </c>
-      <c r="B17" s="127" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>560</v>
-      </c>
-      <c r="E17" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-    </row>
-    <row r="18" spans="1:17" ht="30">
-      <c r="A18" s="61">
-        <v>17</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="127" t="s">
-        <v>559</v>
-      </c>
-      <c r="E18" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-    </row>
-    <row r="19" spans="1:17" ht="30">
-      <c r="A19" s="61">
-        <v>18</v>
-      </c>
-      <c r="B19" s="127" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>535</v>
-      </c>
-      <c r="E19" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-    </row>
-    <row r="20" spans="1:17" ht="30">
-      <c r="A20" s="61">
-        <v>19</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>536</v>
-      </c>
-      <c r="E20" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L20" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-    </row>
-    <row r="21" spans="1:17" ht="30">
-      <c r="A21" s="61">
-        <v>20</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="127" t="s">
-        <v>537</v>
-      </c>
-      <c r="E21" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K21" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L21" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="61">
-        <v>21</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>538</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="61">
-        <v>22</v>
-      </c>
-      <c r="B23" s="127" t="s">
-        <v>539</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="61">
-        <v>23</v>
-      </c>
-      <c r="B24" s="127" t="s">
-        <v>558</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="61">
-        <v>24</v>
-      </c>
-      <c r="B25" s="127" t="s">
-        <v>557</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="61">
-        <v>25</v>
-      </c>
-      <c r="B26" s="127" t="s">
-        <v>556</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="142">
-        <v>26</v>
-      </c>
-      <c r="B27" s="127" t="s">
-        <v>555</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="127" t="s">
-        <v>555</v>
-      </c>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="L27" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M27" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="N27" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="O27" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q27" s="127"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="61">
-        <v>27</v>
-      </c>
-      <c r="B28" s="127" t="s">
-        <v>554</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="127" t="s">
-        <v>554</v>
-      </c>
-      <c r="E28" s="128"/>
-      <c r="F28" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="L28" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="N28" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="O28" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="P28" s="127"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="61">
-        <v>28</v>
-      </c>
-      <c r="B29" s="127" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="127" t="s">
-        <v>553</v>
-      </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="L29" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="N29" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="P29" s="127"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="61">
-        <v>29</v>
-      </c>
-      <c r="B30" s="127" t="s">
-        <v>552</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="127" t="s">
-        <v>552</v>
-      </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="L30" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="N30" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="P30" s="127"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="61">
-        <v>30</v>
-      </c>
-      <c r="B31" s="127" t="s">
-        <v>551</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="127" t="s">
-        <v>551</v>
-      </c>
-      <c r="E31" s="128"/>
-      <c r="F31" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="K31" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="N31" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="142">
-        <v>31</v>
-      </c>
-      <c r="B32" s="127" t="s">
-        <v>519</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="129" t="s">
-        <v>273</v>
-      </c>
-      <c r="L32" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M32" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="N32" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="O32" s="130" t="s">
-        <v>303</v>
-      </c>
-      <c r="P32" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q32" s="130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="61">
-        <v>32</v>
-      </c>
-      <c r="B33" s="127" t="s">
-        <v>550</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="127" t="s">
-        <v>550</v>
-      </c>
-      <c r="E33" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="61">
-        <v>33</v>
-      </c>
-      <c r="B34" s="127" t="s">
-        <v>549</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>549</v>
-      </c>
-      <c r="E34" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="H34" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="I34" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="N34" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="61">
-        <v>34</v>
-      </c>
-      <c r="B35" s="127" t="s">
-        <v>548</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="127" t="s">
-        <v>548</v>
-      </c>
-      <c r="E35" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="61">
+      <c r="C1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="127" t="s">
-        <v>547</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="127" t="s">
-        <v>547</v>
-      </c>
-      <c r="E36" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="61">
-        <v>36</v>
-      </c>
-      <c r="B37" s="127" t="s">
-        <v>546</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="127" t="s">
-        <v>546</v>
-      </c>
-      <c r="E37" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="J37" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="K37" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="61">
-        <v>37</v>
-      </c>
-      <c r="B38" s="127" t="s">
-        <v>545</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" s="127" t="s">
-        <v>545</v>
-      </c>
-      <c r="E38" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="132" t="s">
-        <v>280</v>
-      </c>
-      <c r="I38" s="129"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
-      <c r="O38" s="127"/>
-      <c r="P38" s="127"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="61">
-        <v>38</v>
-      </c>
-      <c r="B39" s="127" t="s">
-        <v>544</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" s="127" t="s">
-        <v>544</v>
-      </c>
-      <c r="E39" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="132" t="s">
-        <v>280</v>
-      </c>
-      <c r="I39" s="129"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="62">
-        <v>39</v>
-      </c>
-      <c r="B40" s="134" t="s">
-        <v>520</v>
-      </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="134" t="s">
-        <v>520</v>
-      </c>
-      <c r="E40" s="128"/>
-      <c r="F40" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="M40" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="N40" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="O40" s="137" t="s">
-        <v>305</v>
-      </c>
-      <c r="P40" s="132" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q40" s="132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="62">
-        <v>40</v>
-      </c>
-      <c r="B41" s="134" t="s">
-        <v>521</v>
-      </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="134" t="s">
-        <v>521</v>
-      </c>
-      <c r="E41" s="128"/>
-      <c r="F41" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="M41" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="N41" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="O41" s="134" t="s">
-        <v>305</v>
-      </c>
-      <c r="P41" s="139" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q41" s="132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="62">
-        <v>41</v>
-      </c>
-      <c r="B42" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="E42" s="128"/>
-      <c r="F42" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="M42" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="N42" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="O42" s="134" t="s">
-        <v>305</v>
-      </c>
-      <c r="P42" s="132" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q42" s="132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="143">
-        <v>42</v>
-      </c>
-      <c r="B43" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="E43" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="133"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="63">
-        <v>43</v>
-      </c>
-      <c r="B44" s="133" t="s">
-        <v>524</v>
-      </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="133" t="s">
-        <v>524</v>
-      </c>
-      <c r="E44" s="128"/>
-      <c r="F44" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="133" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="133"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="64">
-        <v>44</v>
-      </c>
-      <c r="B45" s="133" t="s">
-        <v>543</v>
-      </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="E45" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="143">
-        <v>45</v>
-      </c>
-      <c r="B46" s="136" t="s">
-        <v>525</v>
-      </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="136" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="133"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="133"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="65">
-        <v>46</v>
-      </c>
-      <c r="B47" s="134" t="s">
-        <v>526</v>
-      </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="134" t="s">
-        <v>526</v>
-      </c>
-      <c r="E47" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="H47" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="I47" s="132" t="s">
-        <v>297</v>
-      </c>
-      <c r="J47" s="132" t="s">
-        <v>298</v>
-      </c>
-      <c r="K47" s="132" t="s">
-        <v>299</v>
-      </c>
-      <c r="L47" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="M47" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="N47" s="132" t="s">
-        <v>290</v>
-      </c>
-      <c r="O47" s="132" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="65">
-        <v>47</v>
-      </c>
-      <c r="B48" s="138" t="s">
-        <v>424</v>
-      </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="134" t="s">
-        <v>436</v>
-      </c>
-      <c r="E48" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" s="132" t="s">
-        <v>297</v>
-      </c>
-      <c r="J48" s="132" t="s">
-        <v>298</v>
-      </c>
-      <c r="K48" s="132" t="s">
-        <v>299</v>
-      </c>
-      <c r="L48" s="132" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="62">
-        <v>48</v>
-      </c>
-      <c r="B49" s="138" t="s">
-        <v>542</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="138" t="s">
-        <v>542</v>
-      </c>
-      <c r="E49" s="128"/>
-      <c r="F49" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="132" t="s">
-        <v>301</v>
-      </c>
-      <c r="J49" s="135"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="132"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="135"/>
-    </row>
-    <row r="50" spans="1:16" s="57" customFormat="1">
-      <c r="A50" s="66">
-        <v>49</v>
-      </c>
-      <c r="B50" s="126" t="s">
-        <v>527</v>
-      </c>
-      <c r="C50" s="69">
-        <v>215</v>
-      </c>
-      <c r="D50" s="126" t="s">
-        <v>527</v>
-      </c>
-      <c r="E50" s="128" t="s">
-        <v>507</v>
-      </c>
-      <c r="F50" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="H50" s="126"/>
-    </row>
-    <row r="51" spans="1:16" s="57" customFormat="1">
-      <c r="A51" s="66">
-        <v>50</v>
-      </c>
-      <c r="B51" s="126" t="s">
-        <v>528</v>
-      </c>
-      <c r="C51" s="69">
-        <v>216</v>
-      </c>
-      <c r="D51" s="126" t="s">
-        <v>528</v>
-      </c>
-      <c r="E51" s="128" t="s">
-        <v>507</v>
-      </c>
-      <c r="F51" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="H51" s="126"/>
-    </row>
-    <row r="52" spans="1:16" s="57" customFormat="1">
-      <c r="A52" s="66">
-        <v>51</v>
-      </c>
-      <c r="B52" s="126" t="s">
-        <v>529</v>
-      </c>
-      <c r="C52" s="69">
-        <v>217</v>
-      </c>
-      <c r="D52" s="126" t="s">
-        <v>529</v>
-      </c>
-      <c r="E52" s="128" t="s">
-        <v>507</v>
-      </c>
-      <c r="F52" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="H52" s="126"/>
-    </row>
-    <row r="53" spans="1:16" s="133" customFormat="1">
-      <c r="A53" s="64">
-        <v>52</v>
-      </c>
-      <c r="B53" s="133" t="s">
-        <v>541</v>
-      </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="133" t="s">
-        <v>541</v>
-      </c>
-      <c r="E53" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="132" t="s">
-        <v>413</v>
-      </c>
-      <c r="H53" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="I53" s="132" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="133" customFormat="1">
-      <c r="A54" s="64">
-        <v>53</v>
-      </c>
-      <c r="B54" s="133" t="s">
-        <v>540</v>
-      </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="133" t="s">
-        <v>540</v>
-      </c>
-      <c r="E54" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="132" t="s">
-        <v>413</v>
-      </c>
-      <c r="H54" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="J54" s="132" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="69">
-        <v>54</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="H55" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="I55" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="58" t="s">
-        <v>580</v>
-      </c>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="127"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="69">
-        <v>55</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="E56" s="57"/>
-      <c r="F56" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="H56" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="I56" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="J56" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="69">
-        <v>56</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="H57" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="J57" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="69">
-        <v>57</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>622</v>
-      </c>
-      <c r="C58" s="69">
-        <v>265</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>622</v>
-      </c>
-      <c r="E58" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="F58" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="58" t="s">
-        <v>581</v>
-      </c>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="69">
-        <v>58</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>623</v>
-      </c>
-      <c r="C59" s="69">
-        <v>271</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>623</v>
-      </c>
-      <c r="E59" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="F59" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>581</v>
-      </c>
-      <c r="H59" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="67"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="69">
-        <v>59</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>624</v>
-      </c>
-      <c r="C60" s="69">
-        <v>266</v>
-      </c>
-      <c r="D60" s="67" t="s">
-        <v>624</v>
-      </c>
-      <c r="E60" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="F60" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>581</v>
-      </c>
-      <c r="H60" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="69">
-        <v>60</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>625</v>
-      </c>
-      <c r="C61" s="69">
-        <v>270</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>625</v>
-      </c>
-      <c r="E61" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="F61" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="69">
-        <v>61</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>626</v>
-      </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="67" t="s">
-        <v>626</v>
-      </c>
-      <c r="E62" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="F62" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="67" t="s">
-        <v>583</v>
-      </c>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="69">
-        <v>62</v>
-      </c>
-      <c r="B63" s="72" t="s">
-        <v>627</v>
-      </c>
-      <c r="C63" s="69">
-        <v>305</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>584</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>585</v>
-      </c>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="69">
-        <v>63</v>
-      </c>
-      <c r="B64" s="72" t="s">
-        <v>594</v>
-      </c>
-      <c r="C64" s="69">
-        <v>305</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>584</v>
-      </c>
-      <c r="E64" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="58" t="s">
-        <v>585</v>
-      </c>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="69">
-        <v>64</v>
-      </c>
-      <c r="B65" s="73" t="s">
-        <v>628</v>
-      </c>
-      <c r="C65" s="69">
-        <v>309</v>
-      </c>
-      <c r="D65" s="67" t="s">
-        <v>628</v>
-      </c>
-      <c r="E65" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="58" t="s">
-        <v>586</v>
-      </c>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="69">
-        <v>65</v>
-      </c>
-      <c r="B66" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="C66" s="69">
-        <v>312</v>
-      </c>
-      <c r="D66" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="E66" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="69">
-        <v>66</v>
-      </c>
-      <c r="B67" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="C67" s="69">
-        <v>315</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="E67" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="F67" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="68" t="s">
-        <v>588</v>
-      </c>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="69">
-        <v>67</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="C68" s="69">
-        <v>318</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="E68" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="H68" s="67" t="s">
-        <v>589</v>
-      </c>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="67" t="s">
-        <v>632</v>
-      </c>
-      <c r="C69" s="69">
-        <v>331</v>
-      </c>
-      <c r="D69" s="126" t="s">
-        <v>632</v>
-      </c>
-      <c r="E69" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="F69" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="58"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="69">
-        <v>69</v>
-      </c>
-      <c r="B70" s="67" t="s">
-        <v>633</v>
-      </c>
-      <c r="C70" s="69">
-        <v>335</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>633</v>
-      </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>590</v>
-      </c>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="66">
-        <v>70</v>
-      </c>
-      <c r="B71" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C71" s="69">
-        <v>265</v>
-      </c>
-      <c r="D71" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="E71" s="68" t="s">
-        <v>591</v>
-      </c>
-      <c r="F71" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="H71" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="I71" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="J71" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K71" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="L71" s="58" t="s">
-        <v>593</v>
+      <c r="D1" s="90" t="s">
+        <v>644</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>648</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="117">
+        <v>71</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="117">
+        <v>1</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>650</v>
+      </c>
+      <c r="E2" s="145" t="s">
+        <v>429</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>651</v>
+      </c>
+      <c r="G2" s="146" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2" s="145" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="115" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q71"/>
-  <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="84" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="83" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="82" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="81" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="79" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="78" priority="73"/>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
-    <hyperlink ref="J8:J9" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="N31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
-    <hyperlink ref="I40" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H41" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K40" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L40" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N40" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="Q40" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="I41:I42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="H40:H42" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J40:J42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K40:K42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L40:L42" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N40:N42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="Q40:Q42" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O32" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="P40:P42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="K4" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
-    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
-    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
-    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2555918D-6EAD-4098-925A-331020C93D93}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{3699540D-500B-4EAF-A6AE-B133557F3029}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6813,13 +4201,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6827,7 +4215,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -6839,8 +4227,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6940,13 +4328,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6955,8 +4343,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -7196,31 +4584,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0B00-000005000000}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0B00-000006000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7229,8 +4617,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7291,17 +4679,17 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7348,17 +4736,17 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7448,8 +4836,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8081,43 +5469,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8759,25 +6147,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8785,8 +6173,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9234,13 +6622,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9248,8 +6636,2935 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q72"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="62" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="134" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="134" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.140625" style="134" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="134" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="134"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="124" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30">
+      <c r="A2" s="141">
+        <v>1</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+    </row>
+    <row r="3" spans="1:17" ht="30">
+      <c r="A3" s="142">
+        <v>2</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+    </row>
+    <row r="4" spans="1:17" ht="30">
+      <c r="A4" s="141">
+        <v>3</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+    </row>
+    <row r="5" spans="1:17" ht="30">
+      <c r="A5" s="141">
+        <v>4</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+    </row>
+    <row r="6" spans="1:17" ht="30">
+      <c r="A6" s="141">
+        <v>5</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+    </row>
+    <row r="7" spans="1:17" ht="30">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J7" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+    </row>
+    <row r="8" spans="1:17" ht="30">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F8" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+    </row>
+    <row r="9" spans="1:17" ht="30">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+    </row>
+    <row r="10" spans="1:17" ht="30">
+      <c r="A10" s="141">
+        <v>9</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+    </row>
+    <row r="11" spans="1:17" ht="30">
+      <c r="A11" s="141">
+        <v>10</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J11" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+    </row>
+    <row r="12" spans="1:17" ht="30">
+      <c r="A12" s="141">
+        <v>11</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J12" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+    </row>
+    <row r="13" spans="1:17" ht="30">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J13" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+    </row>
+    <row r="14" spans="1:17" ht="30">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J14" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+    </row>
+    <row r="15" spans="1:17" ht="30">
+      <c r="A15" s="61">
+        <v>14</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>562</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+    </row>
+    <row r="16" spans="1:17" ht="30">
+      <c r="A16" s="142">
+        <v>15</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>561</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+    </row>
+    <row r="17" spans="1:17" ht="30">
+      <c r="A17" s="61">
+        <v>16</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>560</v>
+      </c>
+      <c r="E17" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+    </row>
+    <row r="18" spans="1:17" ht="30">
+      <c r="A18" s="61">
+        <v>17</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+    </row>
+    <row r="19" spans="1:17" ht="30">
+      <c r="A19" s="61">
+        <v>18</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+    </row>
+    <row r="20" spans="1:17" ht="30">
+      <c r="A20" s="61">
+        <v>19</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>536</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L20" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+    </row>
+    <row r="21" spans="1:17" ht="30">
+      <c r="A21" s="61">
+        <v>20</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>537</v>
+      </c>
+      <c r="E21" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L21" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="61">
+        <v>21</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>538</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="61">
+        <v>22</v>
+      </c>
+      <c r="B23" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="61">
+        <v>23</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>558</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="61">
+        <v>24</v>
+      </c>
+      <c r="B25" s="127" t="s">
+        <v>557</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="61">
+        <v>25</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>556</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="142">
+        <v>26</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>555</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>555</v>
+      </c>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="O27" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q27" s="127"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="61">
+        <v>27</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>554</v>
+      </c>
+      <c r="E28" s="128"/>
+      <c r="F28" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="127"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="61">
+        <v>28</v>
+      </c>
+      <c r="B29" s="127" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="127" t="s">
+        <v>553</v>
+      </c>
+      <c r="E29" s="128"/>
+      <c r="F29" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="O29" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="127"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="61">
+        <v>29</v>
+      </c>
+      <c r="B30" s="127" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>552</v>
+      </c>
+      <c r="E30" s="128"/>
+      <c r="F30" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" s="127"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="61">
+        <v>30</v>
+      </c>
+      <c r="B31" s="127" t="s">
+        <v>551</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>551</v>
+      </c>
+      <c r="E31" s="128"/>
+      <c r="F31" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="142">
+        <v>31</v>
+      </c>
+      <c r="B32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="129" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" s="130" t="s">
+        <v>303</v>
+      </c>
+      <c r="P32" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q32" s="130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="61">
+        <v>32</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="127" t="s">
+        <v>550</v>
+      </c>
+      <c r="E33" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="61">
+        <v>33</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>549</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="127" t="s">
+        <v>549</v>
+      </c>
+      <c r="E34" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="O34" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="61">
+        <v>34</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="127" t="s">
+        <v>548</v>
+      </c>
+      <c r="E35" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="M35" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="61">
+        <v>35</v>
+      </c>
+      <c r="B36" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="E36" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="129" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="61">
+        <v>36</v>
+      </c>
+      <c r="B37" s="127" t="s">
+        <v>546</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="127" t="s">
+        <v>546</v>
+      </c>
+      <c r="E37" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="129" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="K37" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="61">
+        <v>37</v>
+      </c>
+      <c r="B38" s="127" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="127" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="I38" s="129"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="61">
+        <v>38</v>
+      </c>
+      <c r="B39" s="127" t="s">
+        <v>544</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="127" t="s">
+        <v>544</v>
+      </c>
+      <c r="E39" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="I39" s="129"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="62">
+        <v>39</v>
+      </c>
+      <c r="B40" s="134" t="s">
+        <v>520</v>
+      </c>
+      <c r="C40" s="70"/>
+      <c r="D40" s="134" t="s">
+        <v>520</v>
+      </c>
+      <c r="E40" s="128"/>
+      <c r="F40" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="O40" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="P40" s="132" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q40" s="132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="62">
+        <v>40</v>
+      </c>
+      <c r="B41" s="134" t="s">
+        <v>521</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="134" t="s">
+        <v>521</v>
+      </c>
+      <c r="E41" s="128"/>
+      <c r="F41" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="N41" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="O41" s="134" t="s">
+        <v>305</v>
+      </c>
+      <c r="P41" s="139" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q41" s="132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="62">
+        <v>41</v>
+      </c>
+      <c r="B42" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="E42" s="128"/>
+      <c r="F42" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="N42" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="O42" s="134" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42" s="132" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q42" s="132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="143">
+        <v>42</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="C43" s="70"/>
+      <c r="D43" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="E43" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="133"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="63">
+        <v>43</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C44" s="70"/>
+      <c r="D44" s="133" t="s">
+        <v>524</v>
+      </c>
+      <c r="E44" s="128"/>
+      <c r="F44" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="133" t="s">
+        <v>293</v>
+      </c>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
+      <c r="O44" s="133"/>
+      <c r="P44" s="133"/>
+      <c r="Q44" s="133"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="64">
+        <v>44</v>
+      </c>
+      <c r="B45" s="133" t="s">
+        <v>543</v>
+      </c>
+      <c r="C45" s="70"/>
+      <c r="D45" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="143">
+        <v>45</v>
+      </c>
+      <c r="B46" s="136" t="s">
+        <v>525</v>
+      </c>
+      <c r="C46" s="70"/>
+      <c r="D46" s="136" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="133"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="65">
+        <v>46</v>
+      </c>
+      <c r="B47" s="134" t="s">
+        <v>526</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="134" t="s">
+        <v>526</v>
+      </c>
+      <c r="E47" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="132" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="132" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" s="132" t="s">
+        <v>298</v>
+      </c>
+      <c r="K47" s="132" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" s="132" t="s">
+        <v>300</v>
+      </c>
+      <c r="M47" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47" s="132" t="s">
+        <v>290</v>
+      </c>
+      <c r="O47" s="132" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="65">
+        <v>47</v>
+      </c>
+      <c r="B48" s="138" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="134" t="s">
+        <v>436</v>
+      </c>
+      <c r="E48" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="132" t="s">
+        <v>296</v>
+      </c>
+      <c r="I48" s="132" t="s">
+        <v>297</v>
+      </c>
+      <c r="J48" s="132" t="s">
+        <v>298</v>
+      </c>
+      <c r="K48" s="132" t="s">
+        <v>299</v>
+      </c>
+      <c r="L48" s="132" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="62">
+        <v>48</v>
+      </c>
+      <c r="B49" s="138" t="s">
+        <v>542</v>
+      </c>
+      <c r="C49" s="70"/>
+      <c r="D49" s="138" t="s">
+        <v>542</v>
+      </c>
+      <c r="E49" s="128"/>
+      <c r="F49" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="132" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="135"/>
+    </row>
+    <row r="50" spans="1:16" s="57" customFormat="1">
+      <c r="A50" s="66">
+        <v>49</v>
+      </c>
+      <c r="B50" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="C50" s="69">
+        <v>215</v>
+      </c>
+      <c r="D50" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="E50" s="128" t="s">
+        <v>507</v>
+      </c>
+      <c r="F50" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="126"/>
+    </row>
+    <row r="51" spans="1:16" s="57" customFormat="1">
+      <c r="A51" s="66">
+        <v>50</v>
+      </c>
+      <c r="B51" s="126" t="s">
+        <v>528</v>
+      </c>
+      <c r="C51" s="69">
+        <v>216</v>
+      </c>
+      <c r="D51" s="126" t="s">
+        <v>528</v>
+      </c>
+      <c r="E51" s="128" t="s">
+        <v>507</v>
+      </c>
+      <c r="F51" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51" s="126"/>
+    </row>
+    <row r="52" spans="1:16" s="57" customFormat="1">
+      <c r="A52" s="66">
+        <v>51</v>
+      </c>
+      <c r="B52" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="C52" s="69">
+        <v>217</v>
+      </c>
+      <c r="D52" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="E52" s="128" t="s">
+        <v>507</v>
+      </c>
+      <c r="F52" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="126"/>
+    </row>
+    <row r="53" spans="1:16" s="133" customFormat="1">
+      <c r="A53" s="64">
+        <v>52</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>541</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="133" t="s">
+        <v>541</v>
+      </c>
+      <c r="E53" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="132" t="s">
+        <v>413</v>
+      </c>
+      <c r="H53" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="I53" s="132" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="133" customFormat="1">
+      <c r="A54" s="64">
+        <v>53</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>540</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="133" t="s">
+        <v>540</v>
+      </c>
+      <c r="E54" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="132" t="s">
+        <v>413</v>
+      </c>
+      <c r="H54" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="J54" s="132" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="69">
+        <v>54</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" s="57"/>
+      <c r="F55" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="58" t="s">
+        <v>580</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="127"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="69">
+        <v>55</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="E56" s="57"/>
+      <c r="F56" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="H56" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="I56" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="69">
+        <v>56</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E57" s="57"/>
+      <c r="F57" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="69">
+        <v>57</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="C58" s="69">
+        <v>265</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="E58" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F58" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="69">
+        <v>58</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="C59" s="69">
+        <v>271</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F59" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="67"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="69">
+        <v>59</v>
+      </c>
+      <c r="B60" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="C60" s="69">
+        <v>266</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F60" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="H60" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="69">
+        <v>60</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="C61" s="69">
+        <v>270</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F61" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="69">
+        <v>61</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F62" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="69">
+        <v>62</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="69">
+        <v>305</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="69">
+        <v>63</v>
+      </c>
+      <c r="B64" s="72" t="s">
+        <v>594</v>
+      </c>
+      <c r="C64" s="69">
+        <v>305</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="69">
+        <v>64</v>
+      </c>
+      <c r="B65" s="73" t="s">
+        <v>628</v>
+      </c>
+      <c r="C65" s="69">
+        <v>309</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="E65" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="69">
+        <v>65</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="C66" s="69">
+        <v>312</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="E66" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="69">
+        <v>66</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="C67" s="69">
+        <v>315</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="E67" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="68" t="s">
+        <v>588</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="69">
+        <v>67</v>
+      </c>
+      <c r="B68" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="C68" s="69">
+        <v>318</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="H68" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="C69" s="69">
+        <v>331</v>
+      </c>
+      <c r="D69" s="126" t="s">
+        <v>632</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="58"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="69">
+        <v>69</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="C70" s="69">
+        <v>335</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="E70" s="57"/>
+      <c r="F70" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="66">
+        <v>70</v>
+      </c>
+      <c r="B71" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C71" s="69">
+        <v>265</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="F71" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="I71" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J71" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="L71" s="58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="62">
+        <v>71</v>
+      </c>
+      <c r="B72" s="134" t="s">
+        <v>642</v>
+      </c>
+      <c r="F72" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="144" t="s">
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="B53:B54">
+    <cfRule type="duplicateValues" dxfId="85" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="83" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B52">
+    <cfRule type="duplicateValues" dxfId="82" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="duplicateValues" dxfId="81" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
+    <cfRule type="duplicateValues" dxfId="80" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B71 B73:B1048576">
+    <cfRule type="duplicateValues" dxfId="79" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J8:J9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="N31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I40" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H41" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="K40" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="L40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="M40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="N40" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="Q40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="I41:I42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H40:H42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J40:J42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="K40:K42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="L40:L42" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="N40:N42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="Q40:Q42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="O32" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="P40:P42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="K4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="G72" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{B89C2A0A-9FB0-4B21-BC21-787C9AE478FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9417,112 +9732,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="85"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="84">
-        <v>52</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="84">
-        <v>53</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="83">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="83">
-        <v>70</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9963,15 +10174,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10196,10 +10407,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10207,8 +10418,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11107,38 +11318,38 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B33">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A33">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="O3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="O5" r:id="rId4"/>
-    <hyperlink ref="O8" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6"/>
-    <hyperlink ref="O7" r:id="rId7"/>
-    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
+    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
+    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
+    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-1500-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
@@ -11288,23 +11499,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11469,19 +11680,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11690,8 +11901,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11934,15 +12145,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12164,14 +12375,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12808,26 +13019,130 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="84">
+        <v>52</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="84">
+        <v>53</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="83">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="83">
+        <v>70</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12991,153 +13306,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="79">
-        <v>52</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="79">
-        <v>53</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="78">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="80">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="57">
-        <v>56</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C7" s="80">
-        <v>2</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="78">
-        <v>70</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" s="80">
-        <v>1</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13902,22 +14072,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-1D00-000001000000}">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{00000000-0002-0000-1D00-000002000000}">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13927,13 +14097,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000003000000}">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000004000000}">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -13945,8 +14115,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14008,8 +14178,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14116,8 +14286,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14191,8 +14361,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14275,8 +14445,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14585,36 +14755,36 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E13" r:id="rId9"/>
-    <hyperlink ref="E14" r:id="rId10"/>
-    <hyperlink ref="E15" r:id="rId11"/>
-    <hyperlink ref="E16" r:id="rId12"/>
-    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-2200-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-2200-000003000000}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-2200-000004000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-2200-000005000000}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-2200-000006000000}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{00000000-0004-0000-2200-000007000000}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{00000000-0004-0000-2200-000008000000}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-2200-000009000000}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{00000000-0004-0000-2200-00000A000000}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{00000000-0004-0000-2200-00000B000000}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{00000000-0004-0000-2200-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14677,8 +14847,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14767,15 +14937,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14830,8 +15000,153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="79">
+        <v>52</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="79">
+        <v>53</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="78">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="57">
+        <v>56</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="80">
+        <v>2</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="78">
+        <v>70</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"All,Specific"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14932,219 +15247,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="77"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="76">
-        <v>52</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G2" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="76">
-        <v>53</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="57">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="75">
-        <v>70</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="75">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="73" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"ExistingUser,logedOn_user"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15248,15 +15358,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15353,8 +15463,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15399,8 +15509,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15851,35 +15961,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B21">
-    <cfRule type="duplicateValues" dxfId="7" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A21">
-    <cfRule type="duplicateValues" dxfId="6" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-2A00-000001000000}">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -15887,8 +15997,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16872,34 +16982,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B26">
-    <cfRule type="duplicateValues" dxfId="1" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A26">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11" xr:uid="{00000000-0002-0000-2B00-000001000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{00000000-0002-0000-2B00-000002000000}">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{00000000-0002-0000-2B00-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16908,8 +17018,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17012,8 +17122,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17216,8 +17326,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17320,8 +17430,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17424,8 +17534,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="76">
+        <v>52</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="76">
+        <v>53</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="75">
+        <v>70</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="75">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"ExistingUser,logedOn_user"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17797,403 +18112,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="45">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="51">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="45">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="45">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="51">
-        <v>1</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="51">
-        <v>1</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="45">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="51">
-        <v>1</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="45">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="C11" s="51">
-        <v>1</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="45">
-        <v>11</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="51">
-        <v>1</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="45">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="45">
-        <v>13</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="51">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="45">
-        <v>14</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="45">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="51">
-        <v>1</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="45">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="51">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="45">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="51">
-        <v>1</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="45">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="51">
-        <v>1</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="45">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="51">
-        <v>1</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="45">
-        <v>20</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="51">
-        <v>1</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="45">
-        <v>31</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="51">
-        <v>1</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="47">
-        <v>39</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="51">
-        <v>1</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="47">
-        <v>40</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="51">
-        <v>1</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="47">
-        <v>41</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="51">
-        <v>1</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="71" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="70" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18296,8 +18216,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
@@ -18401,7 +18321,402 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="51">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="51">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="51">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="51">
+        <v>1</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="51">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="51">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="51">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="51">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="45">
+        <v>31</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="47">
+        <v>39</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="47">
+        <v>40</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="47">
+        <v>41</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="51">
+        <v>1</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A21">
+    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18488,14 +18803,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18548,17 +18863,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18708,148 +19023,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Female,Male"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E383972B-EDA6-4C97-B6D0-9C72F613C577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE2D4C-40DC-4572-B245-C1939836CF61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="643">
   <si>
     <t>testSuitID</t>
   </si>
@@ -3780,10 +3780,10 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B71"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3876,7 +3876,7 @@
         <v>507</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>108</v>
@@ -3916,7 +3916,7 @@
         <v>507</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>108</v>
@@ -3957,7 +3957,7 @@
         <v>507</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="129" t="s">
         <v>108</v>
@@ -3998,7 +3998,7 @@
         <v>507</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="129" t="s">
         <v>108</v>
@@ -4039,7 +4039,7 @@
         <v>507</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>108</v>
@@ -4080,7 +4080,7 @@
         <v>139</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="129" t="s">
         <v>86</v>
@@ -4119,7 +4119,7 @@
         <v>507</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="129" t="s">
         <v>86</v>
@@ -4158,7 +4158,7 @@
         <v>507</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="129" t="s">
         <v>86</v>
@@ -4197,7 +4197,7 @@
         <v>199</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="129" t="s">
         <v>86</v>
@@ -4236,7 +4236,7 @@
         <v>199</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>86</v>
@@ -4275,7 +4275,7 @@
         <v>199</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="129" t="s">
         <v>86</v>
@@ -4314,7 +4314,7 @@
         <v>199</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>86</v>
@@ -4353,7 +4353,7 @@
         <v>199</v>
       </c>
       <c r="F14" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="129" t="s">
         <v>86</v>
@@ -4392,7 +4392,7 @@
         <v>199</v>
       </c>
       <c r="F15" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>86</v>
@@ -4431,7 +4431,7 @@
         <v>199</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="129" t="s">
         <v>157</v>
@@ -4474,7 +4474,7 @@
         <v>199</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="129" t="s">
         <v>157</v>
@@ -4517,7 +4517,7 @@
         <v>199</v>
       </c>
       <c r="F18" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="129" t="s">
         <v>157</v>
@@ -4560,7 +4560,7 @@
         <v>199</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="129" t="s">
         <v>157</v>
@@ -4603,7 +4603,7 @@
         <v>199</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="129" t="s">
         <v>157</v>
@@ -4646,7 +4646,7 @@
         <v>199</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="129" t="s">
         <v>157</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="E22" s="127"/>
       <c r="F22" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="129" t="s">
         <v>108</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="E23" s="127"/>
       <c r="F23" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="129" t="s">
         <v>108</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E24" s="127"/>
       <c r="F24" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="129" t="s">
         <v>108</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="E25" s="127"/>
       <c r="F25" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="129" t="s">
         <v>108</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E26" s="127"/>
       <c r="F26" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="129" t="s">
         <v>108</v>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="129" t="s">
         <v>31</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="129" t="s">
         <v>31</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="E30" s="128"/>
       <c r="F30" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="129" t="s">
         <v>31</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="129" t="s">
         <v>31</v>
@@ -5063,7 +5063,7 @@
       <c r="D32" s="127"/>
       <c r="E32" s="128"/>
       <c r="F32" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="129" t="s">
         <v>31</v>
@@ -5116,7 +5116,7 @@
         <v>199</v>
       </c>
       <c r="F33" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="130" t="s">
         <v>158</v>
@@ -5162,7 +5162,7 @@
         <v>199</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="130" t="s">
         <v>157</v>
@@ -5211,7 +5211,7 @@
         <v>199</v>
       </c>
       <c r="F35" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="130" t="s">
         <v>158</v>
@@ -5255,7 +5255,7 @@
         <v>199</v>
       </c>
       <c r="F36" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="129" t="s">
         <v>31</v>
@@ -5295,7 +5295,7 @@
         <v>199</v>
       </c>
       <c r="F37" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="130" t="s">
         <v>157</v>
@@ -5337,7 +5337,7 @@
         <v>199</v>
       </c>
       <c r="F38" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="132" t="s">
         <v>86</v>
@@ -5371,7 +5371,7 @@
         <v>199</v>
       </c>
       <c r="F39" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="132" t="s">
         <v>86</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="E40" s="128"/>
       <c r="F40" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="132" t="s">
         <v>157</v>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="E41" s="128"/>
       <c r="F41" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>157</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="E42" s="128"/>
       <c r="F42" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>157</v>
@@ -5550,7 +5550,7 @@
         <v>199</v>
       </c>
       <c r="F43" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="133" t="s">
         <v>292</v>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E44" s="128"/>
       <c r="F44" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="133" t="s">
         <v>293</v>
@@ -5610,7 +5610,7 @@
         <v>199</v>
       </c>
       <c r="F45" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="133" t="s">
         <v>294</v>
@@ -5672,7 +5672,7 @@
         <v>199</v>
       </c>
       <c r="F47" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="132" t="s">
         <v>157</v>
@@ -5717,7 +5717,7 @@
         <v>139</v>
       </c>
       <c r="F48" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="132" t="s">
         <v>157</v>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E49" s="128"/>
       <c r="F49" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="132" t="s">
         <v>301</v>
@@ -5779,7 +5779,7 @@
         <v>507</v>
       </c>
       <c r="F50" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="58" t="s">
         <v>302</v>
@@ -5803,7 +5803,7 @@
         <v>507</v>
       </c>
       <c r="F51" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>302</v>
@@ -5827,7 +5827,7 @@
         <v>507</v>
       </c>
       <c r="F52" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>302</v>
@@ -5849,7 +5849,7 @@
         <v>139</v>
       </c>
       <c r="F53" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" s="132" t="s">
         <v>413</v>
@@ -5876,7 +5876,7 @@
         <v>139</v>
       </c>
       <c r="F54" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="132" t="s">
         <v>413</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="58" t="s">
         <v>413</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>413</v>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="58" t="s">
         <v>413</v>
@@ -6012,7 +6012,7 @@
         <v>507</v>
       </c>
       <c r="F58" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="58" t="s">
         <v>157</v>
@@ -6045,7 +6045,7 @@
         <v>507</v>
       </c>
       <c r="F59" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>581</v>
@@ -6078,7 +6078,7 @@
         <v>507</v>
       </c>
       <c r="F60" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>581</v>
@@ -6111,7 +6111,7 @@
         <v>507</v>
       </c>
       <c r="F61" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>31</v>
@@ -6142,7 +6142,7 @@
         <v>507</v>
       </c>
       <c r="F62" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>31</v>
@@ -6175,7 +6175,7 @@
         <v>199</v>
       </c>
       <c r="F63" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="58" t="s">
         <v>585</v>
@@ -6206,7 +6206,7 @@
         <v>199</v>
       </c>
       <c r="F64" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="58" t="s">
         <v>585</v>
@@ -6237,7 +6237,7 @@
         <v>199</v>
       </c>
       <c r="F65" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="58" t="s">
         <v>586</v>
@@ -6265,7 +6265,7 @@
         <v>199</v>
       </c>
       <c r="F66" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="57" t="s">
         <v>587</v>
@@ -6293,7 +6293,7 @@
         <v>199</v>
       </c>
       <c r="F67" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="68" t="s">
         <v>588</v>
@@ -6321,7 +6321,7 @@
         <v>199</v>
       </c>
       <c r="F68" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="57" t="s">
         <v>588</v>
@@ -6351,7 +6351,7 @@
         <v>199</v>
       </c>
       <c r="F69" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="58" t="s">
         <v>31</v>
@@ -6375,9 +6375,11 @@
       <c r="D70" s="67" t="s">
         <v>633</v>
       </c>
-      <c r="E70" s="57"/>
+      <c r="E70" s="67" t="s">
+        <v>199</v>
+      </c>
       <c r="F70" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>31</v>
@@ -6407,7 +6409,7 @@
         <v>591</v>
       </c>
       <c r="F71" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="58" t="s">
         <v>413</v>

--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C437423-7DAA-4A10-AE44-0A9C3EA095A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C5DB9-D7A5-45D9-A86B-A1626CFFE5FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="671">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2150,6 +2150,9 @@
   </si>
   <si>
     <t>fake208223074413775@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>watlevi41@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3925,10 +3928,10 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4116,9 +4119,7 @@
       <c r="J4" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="130" t="s">
-        <v>211</v>
-      </c>
+      <c r="K4" s="130"/>
       <c r="L4" s="127"/>
       <c r="M4" s="127"/>
       <c r="N4" s="127"/>
@@ -6831,7 +6832,6 @@
     <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-0000B6000000}"/>
     <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000B7000000}"/>
     <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B8000000}"/>
-    <hyperlink ref="K4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B9000000}"/>
     <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000BA000000}"/>
     <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BB000000}"/>
     <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BC000000}"/>
@@ -7653,12 +7653,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -7932,7 +7932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="29">
       <c r="A5" s="16">
         <v>12</v>
       </c>
@@ -7942,8 +7942,8 @@
       <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>251</v>
+      <c r="D5" s="97" t="s">
+        <v>669</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -7982,7 +7982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="29">
+    <row r="6" spans="1:28">
       <c r="A6" s="16">
         <v>13</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -8308,11 +8308,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{6A38D149-0062-444D-B87D-090190D5419A}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{6A38D149-0062-444D-B87D-090190D5419A}"/>
+    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{CB69D391-1C59-4FFE-A5C3-50AD1C047A7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8991,12 +8991,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -12391,7 +12391,7 @@
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -12619,10 +12619,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="16">
-        <v>225505</v>
+        <v>225504</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>153</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19084,15 +19084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19241,7 +19232,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -19250,24 +19241,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19286,10 +19269,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C5DB9-D7A5-45D9-A86B-A1626CFFE5FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E3243-9B27-4B70-BDF7-4CFC39E98D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="676">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2149,10 +2149,25 @@
     <t>9501015800087</t>
   </si>
   <si>
-    <t>fake208223074413775@automationjdg.co.za</t>
-  </si>
-  <si>
     <t>watlevi41@gmail.com</t>
+  </si>
+  <si>
+    <t>fake388856143421153@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake388856143421153@automatiVATjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake388856143421153@automatiIDjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake388856143421153@automatiwithjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake388856143421153@automatiwithoutjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake388856143421153@automatiMagentojdg.co.za</t>
   </si>
 </sst>
 </file>
@@ -3928,10 +3943,10 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4460,7 +4475,7 @@
         <v>196</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>86</v>
@@ -4499,7 +4514,7 @@
         <v>196</v>
       </c>
       <c r="F14" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="129" t="s">
         <v>86</v>
@@ -7654,11 +7669,11 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -7943,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -7993,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -8004,7 +8019,7 @@
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
@@ -8312,7 +8327,7 @@
     <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
     <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{6A38D149-0062-444D-B87D-090190D5419A}"/>
-    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{CB69D391-1C59-4FFE-A5C3-50AD1C047A7B}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{CB69D391-1C59-4FFE-A5C3-50AD1C047A7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19084,6 +19099,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19232,25 +19265,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19267,29 +19307,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E3243-9B27-4B70-BDF7-4CFC39E98D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5422F55-1C19-434C-900F-4559F1439ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="671">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2153,21 +2153,6 @@
   </si>
   <si>
     <t>fake388856143421153@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake388856143421153@automatiVATjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake388856143421153@automatiIDjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake388856143421153@automatiwithjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake388856143421153@automatiwithoutjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake388856143421153@automatiMagentojdg.co.za</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2342,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2706,6 +2691,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3942,11 +3930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4039,7 +4027,7 @@
         <v>503</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>108</v>
@@ -4475,7 +4463,7 @@
         <v>196</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>86</v>
@@ -7668,12 +7656,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -16133,10 +16121,10 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -16551,8 +16539,8 @@
       <c r="E7" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="118" t="s">
-        <v>126</v>
+      <c r="F7" s="145" t="s">
+        <v>669</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>116</v>
@@ -17145,8 +17133,11 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{07E0AD4C-BB5A-49D2-8211-F59E9B02439D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19099,24 +19090,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19265,32 +19238,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19307,4 +19273,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE2D4C-40DC-4572-B245-C1939836CF61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC373D9-006C-4ADE-9A93-012CC829BFE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parrallel_ic_Login++" sheetId="77" r:id="rId1"/>
@@ -65,6 +65,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IC!$A$1:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3852,7 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06053B8-6DF3-44FB-9BCF-EBFA5CEA1EB4}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4049,10 +4050,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -4201,10 +4202,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -4328,10 +4329,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -4584,10 +4585,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -4679,10 +4680,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4736,10 +4737,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5469,22 +5470,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
@@ -6147,22 +6148,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
@@ -6622,10 +6623,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1100-000000000000}">
@@ -6641,10 +6642,10 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9327,7 +9328,7 @@
     <cfRule type="duplicateValues" dxfId="79" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9736,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10174,7 +10175,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10407,7 +10408,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
@@ -11318,16 +11319,16 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B33">
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A33">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
@@ -11499,16 +11500,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12145,7 +12146,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12375,7 +12376,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13019,19 +13020,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13132,10 +13133,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14072,13 +14073,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-1D00-000000000000}">
@@ -14755,13 +14756,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -15131,10 +15132,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -15961,22 +15962,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B21">
-    <cfRule type="duplicateValues" dxfId="8" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A21">
-    <cfRule type="duplicateValues" dxfId="7" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2A00-000000000000}">
@@ -16982,22 +16983,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A30">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B26">
-    <cfRule type="duplicateValues" dxfId="2" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A26">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{00000000-0002-0000-2B00-000000000000}">
@@ -17717,10 +17718,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -18689,22 +18690,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -18803,7 +18804,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18863,10 +18864,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19023,10 +19024,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -19041,6 +19042,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19189,25 +19208,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19224,29 +19250,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67BA676-03F9-458B-946A-63DCDB8EEF1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -65,12 +64,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000002000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,12 +108,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2A00-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2224,7 +2223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2792,9 +2791,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="95">
     <dxf>
@@ -3803,7 +3802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3836,26 +3835,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3888,23 +3870,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4080,35 +4045,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="62" customWidth="1"/>
-    <col min="2" max="2" width="93.54296875" style="134" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="134" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="134" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" style="134" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="134" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7265625" style="134" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.453125" style="134" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" style="134" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.1796875" style="134" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.453125" style="134" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" style="134" customWidth="1"/>
-    <col min="18" max="18" width="20.1796875" style="134" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="134"/>
+    <col min="2" max="2" width="93.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="134" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="134" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.140625" style="134" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="134" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="134" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4170,7 +4135,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="29">
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="140">
         <v>1</v>
       </c>
@@ -4187,7 +4152,7 @@
         <v>502</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>108</v>
@@ -4210,7 +4175,7 @@
       <c r="O2" s="127"/>
       <c r="P2" s="127"/>
     </row>
-    <row r="3" spans="1:19" ht="29">
+    <row r="3" spans="1:19" ht="30">
       <c r="A3" s="140">
         <v>2</v>
       </c>
@@ -4227,7 +4192,7 @@
         <v>502</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>108</v>
@@ -4251,7 +4216,7 @@
       <c r="P3" s="127"/>
       <c r="Q3" s="127"/>
     </row>
-    <row r="4" spans="1:19" ht="29">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="140">
         <v>3</v>
       </c>
@@ -4268,7 +4233,7 @@
         <v>502</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="129" t="s">
         <v>108</v>
@@ -4290,7 +4255,7 @@
       <c r="P4" s="127"/>
       <c r="Q4" s="127"/>
     </row>
-    <row r="5" spans="1:19" ht="29">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="140">
         <v>4</v>
       </c>
@@ -4307,7 +4272,7 @@
         <v>502</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="129" t="s">
         <v>108</v>
@@ -4331,7 +4296,7 @@
       <c r="P5" s="127"/>
       <c r="Q5" s="127"/>
     </row>
-    <row r="6" spans="1:19" ht="29">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="140">
         <v>5</v>
       </c>
@@ -4348,7 +4313,7 @@
         <v>502</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>108</v>
@@ -4372,7 +4337,7 @@
       <c r="P6" s="127"/>
       <c r="Q6" s="127"/>
     </row>
-    <row r="7" spans="1:19" ht="29">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="140">
         <v>6</v>
       </c>
@@ -4389,7 +4354,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="129" t="s">
         <v>86</v>
@@ -4411,7 +4376,7 @@
       <c r="P7" s="127"/>
       <c r="Q7" s="127"/>
     </row>
-    <row r="8" spans="1:19" ht="29">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" s="140">
         <v>7</v>
       </c>
@@ -4428,7 +4393,7 @@
         <v>502</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="129" t="s">
         <v>86</v>
@@ -4450,7 +4415,7 @@
       <c r="P8" s="127"/>
       <c r="Q8" s="127"/>
     </row>
-    <row r="9" spans="1:19" ht="29">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="140">
         <v>8</v>
       </c>
@@ -4467,7 +4432,7 @@
         <v>502</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="129" t="s">
         <v>86</v>
@@ -4487,7 +4452,7 @@
       <c r="P9" s="127"/>
       <c r="Q9" s="127"/>
     </row>
-    <row r="10" spans="1:19" ht="29">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="140">
         <v>9</v>
       </c>
@@ -4504,7 +4469,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="129" t="s">
         <v>86</v>
@@ -4526,7 +4491,7 @@
       <c r="P10" s="127"/>
       <c r="Q10" s="127"/>
     </row>
-    <row r="11" spans="1:19" ht="29">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="140">
         <v>10</v>
       </c>
@@ -4543,7 +4508,7 @@
         <v>196</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>86</v>
@@ -4565,7 +4530,7 @@
       <c r="P11" s="127"/>
       <c r="Q11" s="127"/>
     </row>
-    <row r="12" spans="1:19" ht="29">
+    <row r="12" spans="1:19" ht="30">
       <c r="A12" s="140">
         <v>11</v>
       </c>
@@ -4582,7 +4547,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="129" t="s">
         <v>86</v>
@@ -4604,7 +4569,7 @@
       <c r="P12" s="127"/>
       <c r="Q12" s="127"/>
     </row>
-    <row r="13" spans="1:19" ht="29">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="140">
         <v>12</v>
       </c>
@@ -4621,7 +4586,7 @@
         <v>196</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>86</v>
@@ -4643,7 +4608,7 @@
       <c r="P13" s="127"/>
       <c r="Q13" s="127"/>
     </row>
-    <row r="14" spans="1:19" ht="29">
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="143">
         <v>13</v>
       </c>
@@ -4682,7 +4647,7 @@
       <c r="P14" s="127"/>
       <c r="Q14" s="127"/>
     </row>
-    <row r="15" spans="1:19" ht="29">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="140">
         <v>14</v>
       </c>
@@ -4699,7 +4664,7 @@
         <v>196</v>
       </c>
       <c r="F15" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>86</v>
@@ -4721,7 +4686,7 @@
       <c r="P15" s="127"/>
       <c r="Q15" s="127"/>
     </row>
-    <row r="16" spans="1:19" ht="29">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="61">
         <v>15</v>
       </c>
@@ -4738,7 +4703,7 @@
         <v>196</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="129" t="s">
         <v>154</v>
@@ -4764,7 +4729,7 @@
       <c r="P16" s="127"/>
       <c r="Q16" s="127"/>
     </row>
-    <row r="17" spans="1:17" ht="29">
+    <row r="17" spans="1:17" ht="30">
       <c r="A17" s="61">
         <v>16</v>
       </c>
@@ -4781,7 +4746,7 @@
         <v>196</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="129" t="s">
         <v>154</v>
@@ -4807,7 +4772,7 @@
       <c r="P17" s="127"/>
       <c r="Q17" s="127"/>
     </row>
-    <row r="18" spans="1:17" ht="29">
+    <row r="18" spans="1:17" ht="30">
       <c r="A18" s="61">
         <v>17</v>
       </c>
@@ -4824,7 +4789,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="129" t="s">
         <v>154</v>
@@ -4850,7 +4815,7 @@
       <c r="P18" s="127"/>
       <c r="Q18" s="127"/>
     </row>
-    <row r="19" spans="1:17" ht="29">
+    <row r="19" spans="1:17" ht="30">
       <c r="A19" s="61">
         <v>18</v>
       </c>
@@ -4867,7 +4832,7 @@
         <v>196</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="129" t="s">
         <v>154</v>
@@ -4893,7 +4858,7 @@
       <c r="P19" s="127"/>
       <c r="Q19" s="127"/>
     </row>
-    <row r="20" spans="1:17" ht="29">
+    <row r="20" spans="1:17" ht="30">
       <c r="A20" s="61">
         <v>19</v>
       </c>
@@ -4910,7 +4875,7 @@
         <v>196</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="129" t="s">
         <v>154</v>
@@ -4936,7 +4901,7 @@
       <c r="P20" s="127"/>
       <c r="Q20" s="127"/>
     </row>
-    <row r="21" spans="1:17" ht="29">
+    <row r="21" spans="1:17" ht="30">
       <c r="A21" s="61">
         <v>20</v>
       </c>
@@ -4953,7 +4918,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="129" t="s">
         <v>154</v>
@@ -4994,7 +4959,7 @@
       </c>
       <c r="E22" s="127"/>
       <c r="F22" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="129" t="s">
         <v>108</v>
@@ -5024,7 +4989,7 @@
       </c>
       <c r="E23" s="127"/>
       <c r="F23" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="129" t="s">
         <v>108</v>
@@ -5054,7 +5019,7 @@
       </c>
       <c r="E24" s="127"/>
       <c r="F24" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="129" t="s">
         <v>108</v>
@@ -5084,7 +5049,7 @@
       </c>
       <c r="E25" s="127"/>
       <c r="F25" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="129" t="s">
         <v>108</v>
@@ -5114,7 +5079,7 @@
       </c>
       <c r="E26" s="127"/>
       <c r="F26" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="129" t="s">
         <v>108</v>
@@ -5144,7 +5109,7 @@
       </c>
       <c r="E27" s="127"/>
       <c r="F27" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="129" t="s">
         <v>31</v>
@@ -5190,7 +5155,7 @@
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="129" t="s">
         <v>31</v>
@@ -5236,7 +5201,7 @@
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="129" t="s">
         <v>31</v>
@@ -5282,7 +5247,7 @@
       </c>
       <c r="E30" s="128"/>
       <c r="F30" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="129" t="s">
         <v>31</v>
@@ -5328,7 +5293,7 @@
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="129" t="s">
         <v>31</v>
@@ -5375,7 +5340,7 @@
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="129" t="s">
         <v>86</v>
@@ -5415,7 +5380,7 @@
       </c>
       <c r="E33" s="128"/>
       <c r="F33" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="129" t="s">
         <v>31</v>
@@ -5465,7 +5430,7 @@
         <v>196</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="130" t="s">
         <v>155</v>
@@ -5511,7 +5476,7 @@
         <v>196</v>
       </c>
       <c r="F35" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="130" t="s">
         <v>154</v>
@@ -5560,7 +5525,7 @@
         <v>196</v>
       </c>
       <c r="F36" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="130" t="s">
         <v>155</v>
@@ -5604,7 +5569,7 @@
         <v>196</v>
       </c>
       <c r="F37" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="129" t="s">
         <v>31</v>
@@ -5644,7 +5609,7 @@
         <v>196</v>
       </c>
       <c r="F38" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="130" t="s">
         <v>154</v>
@@ -5686,7 +5651,7 @@
         <v>196</v>
       </c>
       <c r="F39" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="132" t="s">
         <v>86</v>
@@ -5720,7 +5685,7 @@
         <v>196</v>
       </c>
       <c r="F40" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="132" t="s">
         <v>86</v>
@@ -5750,7 +5715,7 @@
       </c>
       <c r="E41" s="128"/>
       <c r="F41" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>154</v>
@@ -5805,7 +5770,7 @@
       </c>
       <c r="E42" s="128"/>
       <c r="F42" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>154</v>
@@ -5860,7 +5825,7 @@
       </c>
       <c r="E43" s="128"/>
       <c r="F43" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="132" t="s">
         <v>154</v>
@@ -5917,7 +5882,7 @@
         <v>196</v>
       </c>
       <c r="F44" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="133" t="s">
         <v>287</v>
@@ -5946,7 +5911,7 @@
       </c>
       <c r="E45" s="128"/>
       <c r="F45" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="133" t="s">
         <v>288</v>
@@ -5977,7 +5942,7 @@
         <v>196</v>
       </c>
       <c r="F46" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="133" t="s">
         <v>289</v>
@@ -6008,7 +5973,7 @@
         <v>196</v>
       </c>
       <c r="F47" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="136" t="s">
         <v>290</v>
@@ -6039,7 +6004,7 @@
         <v>196</v>
       </c>
       <c r="F48" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="132" t="s">
         <v>154</v>
@@ -6084,7 +6049,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="132" t="s">
         <v>154</v>
@@ -6118,7 +6083,7 @@
       </c>
       <c r="E50" s="128"/>
       <c r="F50" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="132" t="s">
         <v>296</v>
@@ -6146,7 +6111,7 @@
         <v>502</v>
       </c>
       <c r="F51" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>297</v>
@@ -6170,7 +6135,7 @@
         <v>502</v>
       </c>
       <c r="F52" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>297</v>
@@ -6194,7 +6159,7 @@
         <v>502</v>
       </c>
       <c r="F53" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" s="58" t="s">
         <v>297</v>
@@ -6216,7 +6181,7 @@
         <v>136</v>
       </c>
       <c r="F54" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="132" t="s">
         <v>408</v>
@@ -6243,7 +6208,7 @@
         <v>136</v>
       </c>
       <c r="F55" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="132" t="s">
         <v>408</v>
@@ -6271,7 +6236,7 @@
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>408</v>
@@ -6307,7 +6272,7 @@
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="58" t="s">
         <v>408</v>
@@ -6340,7 +6305,7 @@
       </c>
       <c r="E58" s="57"/>
       <c r="F58" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="58" t="s">
         <v>408</v>
@@ -6379,7 +6344,7 @@
         <v>502</v>
       </c>
       <c r="F59" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>154</v>
@@ -6412,7 +6377,7 @@
         <v>502</v>
       </c>
       <c r="F60" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>577</v>
@@ -6445,7 +6410,7 @@
         <v>502</v>
       </c>
       <c r="F61" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>577</v>
@@ -6478,7 +6443,7 @@
         <v>502</v>
       </c>
       <c r="F62" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>31</v>
@@ -6509,7 +6474,7 @@
         <v>502</v>
       </c>
       <c r="F63" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="58" t="s">
         <v>31</v>
@@ -6542,7 +6507,7 @@
         <v>196</v>
       </c>
       <c r="F64" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="58" t="s">
         <v>581</v>
@@ -6573,7 +6538,7 @@
         <v>196</v>
       </c>
       <c r="F65" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="58" t="s">
         <v>581</v>
@@ -6604,7 +6569,7 @@
         <v>196</v>
       </c>
       <c r="F66" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="58" t="s">
         <v>582</v>
@@ -6632,7 +6597,7 @@
         <v>196</v>
       </c>
       <c r="F67" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="57" t="s">
         <v>583</v>
@@ -6660,7 +6625,7 @@
         <v>196</v>
       </c>
       <c r="F68" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="68" t="s">
         <v>584</v>
@@ -6688,7 +6653,7 @@
         <v>196</v>
       </c>
       <c r="F69" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="57" t="s">
         <v>584</v>
@@ -6718,7 +6683,7 @@
         <v>196</v>
       </c>
       <c r="F70" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>31</v>
@@ -6744,7 +6709,7 @@
       </c>
       <c r="E71" s="57"/>
       <c r="F71" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="58" t="s">
         <v>31</v>
@@ -6774,7 +6739,7 @@
         <v>587</v>
       </c>
       <c r="F72" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G72" s="58" t="s">
         <v>408</v>
@@ -6836,244 +6801,244 @@
     <cfRule type="duplicateValues" dxfId="82" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-1200-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-1200-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00000E000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-1200-00000F000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-1200-000010000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000011000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-1200-000012000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000013000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-000014000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000015000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000016000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000017000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000018000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000019000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001A000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001B000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001C000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001D000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00001E000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00001F000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000020000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000021000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000022000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-000023000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000024000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000025000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000026000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000027000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000028000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000029000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002A000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002B000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002C000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002D000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00002E000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00002F000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-000030000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000031000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000032000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000033000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000034000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000035000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000036000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000037000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000038000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000039000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00003A000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00003B000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00003C000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00003D000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00003E000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00003F000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000040000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000041000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000042000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000043000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000044000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000045000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000046000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000047000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000048000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000049000000}"/>
-    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00004A000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00004B000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00004C000000}"/>
-    <hyperlink ref="M31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00004D000000}"/>
-    <hyperlink ref="K31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-00004E000000}"/>
-    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-00004F000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000050000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000051000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000052000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000053000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000054000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000055000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000056000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000057000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000058000000}"/>
-    <hyperlink ref="G33" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000059000000}"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-00005A000000}"/>
-    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00005B000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00005C000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-00005D000000}"/>
-    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00005E000000}"/>
-    <hyperlink ref="K33" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-00005F000000}"/>
-    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000060000000}"/>
-    <hyperlink ref="P33" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-000061000000}"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000062000000}"/>
-    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000063000000}"/>
-    <hyperlink ref="H38" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000064000000}"/>
-    <hyperlink ref="H34" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000065000000}"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000066000000}"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000067000000}"/>
-    <hyperlink ref="K34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000068000000}"/>
-    <hyperlink ref="L34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000069000000}"/>
-    <hyperlink ref="M34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00006A000000}"/>
-    <hyperlink ref="N34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-00006B000000}"/>
-    <hyperlink ref="G34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-1200-00006C000000}"/>
-    <hyperlink ref="H35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-1200-00006D000000}"/>
-    <hyperlink ref="J35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00006E000000}"/>
-    <hyperlink ref="K35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-00006F000000}"/>
-    <hyperlink ref="L35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000070000000}"/>
-    <hyperlink ref="M35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000071000000}"/>
-    <hyperlink ref="N35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000072000000}"/>
-    <hyperlink ref="O35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000073000000}"/>
-    <hyperlink ref="M36" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000074000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-1200-000075000000}"/>
-    <hyperlink ref="H49" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-1200-000076000000}"/>
-    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-1200-000077000000}"/>
-    <hyperlink ref="I49" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-1200-000078000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-1200-000079000000}"/>
-    <hyperlink ref="J49" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-1200-00007A000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-00007B000000}"/>
-    <hyperlink ref="G49" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-00007C000000}"/>
-    <hyperlink ref="G50" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-1200-00007D000000}"/>
-    <hyperlink ref="G41" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-00007F000000}"/>
-    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000083000000}"/>
-    <hyperlink ref="G42:G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000087000000}"/>
-    <hyperlink ref="M41:M43" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00008D000000}"/>
-    <hyperlink ref="H55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000090000000}"/>
-    <hyperlink ref="M48" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000091000000}"/>
-    <hyperlink ref="N48" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-1200-000092000000}"/>
-    <hyperlink ref="O48" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-1200-000093000000}"/>
-    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000094000000}"/>
-    <hyperlink ref="L49" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-1200-000097000000}"/>
-    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-1200-000098000000}"/>
-    <hyperlink ref="K49" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-1200-000099000000}"/>
-    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-1200-00009A000000}"/>
-    <hyperlink ref="G40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00009B000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00009C000000}"/>
-    <hyperlink ref="G54:G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-00009D000000}"/>
-    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-00009E000000}"/>
-    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-00009F000000}"/>
-    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000A0000000}"/>
-    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000A1000000}"/>
-    <hyperlink ref="G36" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-1200-0000A2000000}"/>
-    <hyperlink ref="H36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-0000A3000000}"/>
-    <hyperlink ref="I36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-0000A4000000}"/>
-    <hyperlink ref="J36" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-0000A5000000}"/>
-    <hyperlink ref="K36" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-0000A6000000}"/>
-    <hyperlink ref="L36" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-0000A7000000}"/>
-    <hyperlink ref="G37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000A8000000}"/>
-    <hyperlink ref="H37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-1200-0000A9000000}"/>
-    <hyperlink ref="I37" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-0000AA000000}"/>
-    <hyperlink ref="J37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-0000AB000000}"/>
-    <hyperlink ref="K38" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-0000AC000000}"/>
-    <hyperlink ref="I38" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-1200-0000AD000000}"/>
-    <hyperlink ref="K37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-0000AE000000}"/>
-    <hyperlink ref="L38" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-0000AF000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-1200-0000B0000000}"/>
-    <hyperlink ref="H40" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-1200-0000B1000000}"/>
-    <hyperlink ref="G51" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-1200-0000B2000000}"/>
-    <hyperlink ref="G51:G53" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-1200-0000B3000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-0000B4000000}"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B5000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-0000B6000000}"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000B7000000}"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B8000000}"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000BA000000}"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BB000000}"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BC000000}"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BD000000}"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000BE000000}"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BF000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000C0000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000C1000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C2000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C3000000}"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C4000000}"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C5000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000C6000000}"/>
-    <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000C7000000}"/>
-    <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-0000C8000000}"/>
-    <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000C9000000}"/>
-    <hyperlink ref="K56" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-1200-0000CA000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000CB000000}"/>
-    <hyperlink ref="J58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000CC000000}"/>
-    <hyperlink ref="K58" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000CD000000}"/>
-    <hyperlink ref="G59" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-0000CE000000}"/>
-    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000CF000000}"/>
-    <hyperlink ref="H59" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-1200-0000D0000000}"/>
-    <hyperlink ref="H61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D1000000}"/>
-    <hyperlink ref="G60:G61" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-1200-0000D2000000}"/>
-    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D3000000}"/>
-    <hyperlink ref="G63" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D4000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D5000000}"/>
-    <hyperlink ref="J72" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D6000000}"/>
-    <hyperlink ref="G72" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-0000D7000000}"/>
-    <hyperlink ref="H72" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000D8000000}"/>
-    <hyperlink ref="I72" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000D9000000}"/>
-    <hyperlink ref="K72" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-1200-0000DA000000}"/>
-    <hyperlink ref="L72" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-1200-0000DB000000}"/>
-    <hyperlink ref="G57:G58" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-0000DC000000}"/>
-    <hyperlink ref="H57:H58" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000DD000000}"/>
-    <hyperlink ref="I57:I58" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000DE000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-1200-0000DF000000}"/>
-    <hyperlink ref="G65" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-1200-0000E0000000}"/>
-    <hyperlink ref="G71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000E1000000}"/>
-    <hyperlink ref="G32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{C9F81404-20DC-4947-B669-C5FFD59213EF}"/>
-    <hyperlink ref="H32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{F9F2D9A7-630E-4060-AFB6-21B3EA25B3AE}"/>
-    <hyperlink ref="I32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{CBCE2883-FC80-423D-8AAB-57FEF04B55D5}"/>
-    <hyperlink ref="K32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{F219E800-BAA4-4BFE-8803-2C866DC9684C}"/>
-    <hyperlink ref="H41" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{B7B714A0-CB97-496B-9042-580E7DF84DF2}"/>
-    <hyperlink ref="I41" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AFC68400-A0F0-4634-A779-A9296BFB7B57}"/>
-    <hyperlink ref="I42:I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{EA9A0B7C-C29E-4E67-B593-E6BDB616EB81}"/>
-    <hyperlink ref="H42:H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{C04C5F4B-C413-443D-81CF-50F33D1DEF33}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{DB488BEF-E6BE-40F2-BAD7-31789EC50051}"/>
-    <hyperlink ref="K43" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{83A458EF-055D-489B-8ADD-448A20A0CBA8}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{C5C98CEA-14B3-45B2-9CC8-09FCBF6E682A}"/>
-    <hyperlink ref="J43" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{28699B19-600C-4774-87AF-3FA026715E7C}"/>
-    <hyperlink ref="J41:J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{72BA24CE-A420-4AD8-9F70-6A97E3DCAEF0}"/>
-    <hyperlink ref="L43" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{BFEC65D1-8E08-454F-AA7C-F5BB28430471}"/>
-    <hyperlink ref="L41:L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{44A15FEC-194F-4F25-82BD-8EBFA50DE214}"/>
-    <hyperlink ref="M42" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{2BB2DB03-28C8-4588-8180-6A5A55C55FF1}"/>
-    <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{E1D7587A-7406-4681-9BA7-12928E33CD85}"/>
-    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{1E775A1C-3DA5-41E4-816E-98E99C2421C9}"/>
-    <hyperlink ref="N43" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{78D5372F-37F8-4E57-865F-B39B9F1EDC6C}"/>
-    <hyperlink ref="O43" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{56B8B350-3E21-4CB3-AAFF-43588F3EB1E6}"/>
-    <hyperlink ref="O41:O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{8ED7873A-060E-43E9-9642-F176B4B952D9}"/>
-    <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{3602E772-CAC4-4767-BAD0-7E222BF3C7F0}"/>
-    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{5D5F2DCC-5955-4B53-9A84-5F8E6AC1443B}"/>
-    <hyperlink ref="Q43" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{D4258A85-D343-4133-9862-27ABC8E029FD}"/>
-    <hyperlink ref="R41" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{AE0D3058-C67A-43FF-8BFD-305CA1C077C0}"/>
-    <hyperlink ref="R42:R43" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{8F2BDAB7-46BC-42E8-9BBF-CDC41B0B24D4}"/>
-    <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{A853F61F-4833-42EE-87E9-FCEADE4EC7F4}"/>
-    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{75E4AFCD-187A-4AEF-9251-3937757B6B42}"/>
-    <hyperlink ref="S43" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{E571E959-22B0-454D-89BB-C6E7A87951E7}"/>
-    <hyperlink ref="J31" location="'ic_CashDepositPayment++'!A1" display="ic_CashDepositPayment" xr:uid="{3CA96CD7-4F03-455E-8E33-58D5DCB04CC4}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="M31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K33" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P33" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H38" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H34" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="J35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L35" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="M36" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H49" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="I49" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="J49" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G49" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G50" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G41" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G42:G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="M41:M43" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="H55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M48" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N48" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O48" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="L49" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="K49" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G54:G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G36" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J36" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K36" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L36" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I37" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K38" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I38" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L38" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H40" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="G51" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G51:G53" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K56" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K58" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G59" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H59" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="H61" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G60:G61" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G63" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J72" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G72" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H72" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I72" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K72" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="L72" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="G57:G58" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H57:H58" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I57:I58" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G65" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="I32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="K32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H41" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I41" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I42:I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H42:H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K43" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J43" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J41:J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L43" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L41:L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M42" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N43" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O43" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O41:O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="Q43" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R41" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R42:R43" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S43" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J31" location="'ic_CashDepositPayment++'!A1" display="ic_CashDepositPayment"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7081,28 +7046,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="36"/>
+    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7218,7 +7183,7 @@
     <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7226,7 +7191,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -7239,24 +7204,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="36"/>
+    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7345,7 +7310,7 @@
     <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7355,38 +7320,38 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="36"/>
-    <col min="15" max="15" width="23.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="36"/>
+    <col min="14" max="14" width="9.140625" style="36"/>
+    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -7601,25 +7566,25 @@
     <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0A00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0A00-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7629,22 +7594,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7700,17 +7665,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="35"/>
@@ -7757,25 +7722,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="29"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7848,7 +7813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7859,42 +7824,42 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.26953125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="11" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.54296875" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="11"/>
+    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -8498,64 +8463,64 @@
     <cfRule type="duplicateValues" dxfId="47" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{6A38D149-0062-444D-B87D-090190D5419A}"/>
-    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{AAE16A8E-C686-4949-BF1F-A0C721B3F459}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="12"/>
+    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -9177,7 +9142,7 @@
     <cfRule type="duplicateValues" dxfId="41" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9186,7 +9151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9197,14 +9162,14 @@
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9640,7 +9605,7 @@
     <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9649,22 +9614,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9818,19 +9783,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="85"/>
+    <col min="4" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9922,24 +9887,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="38"/>
+    <col min="11" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="55" customFormat="1">
@@ -10369,19 +10334,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10599,7 +10564,7 @@
     <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10608,33 +10573,33 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -10884,7 +10849,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -10934,7 +10899,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -11475,14 +11440,14 @@
     <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-1500-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -11490,18 +11455,18 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="29"/>
+    <col min="1" max="1" width="21.140625" style="29"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="29"/>
+    <col min="3" max="3" width="21.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11521,7 +11486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -11532,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -11543,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -11554,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -11565,7 +11530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -11620,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="45">
         <v>19</v>
       </c>
@@ -11660,27 +11625,27 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11825,29 +11790,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11864,7 +11829,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -11878,7 +11843,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -11892,7 +11857,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -11906,7 +11871,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -11920,7 +11885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -11934,7 +11899,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -11990,7 +11955,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="146">
         <v>40</v>
       </c>
@@ -12004,7 +11969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="62">
         <v>41</v>
       </c>
@@ -12074,21 +12039,21 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12336,19 +12301,19 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="38"/>
+    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12428,7 +12393,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -12563,7 +12528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12574,14 +12539,14 @@
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13220,7 +13185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13230,13 +13195,13 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="11"/>
+    <col min="4" max="4" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13253,7 +13218,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -13265,7 +13230,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="43.5">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -13277,7 +13242,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -13289,7 +13254,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -13301,7 +13266,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -13313,7 +13278,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -13385,20 +13350,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="80"/>
+    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13521,7 +13486,7 @@
     <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13530,7 +13495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -13540,23 +13505,23 @@
       <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="86" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.54296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="86" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="86"/>
+    <col min="4" max="4" width="20.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="86" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="82" t="s">
         <v>34</v>
       </c>
@@ -13655,7 +13620,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="87">
         <v>28</v>
       </c>
@@ -14307,13 +14272,13 @@
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-1D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{00000000-0002-0000-1D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14323,13 +14288,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -14342,20 +14307,20 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14405,16 +14370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14513,21 +14478,21 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="31"/>
+    <col min="4" max="4" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14588,21 +14553,21 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14672,21 +14637,21 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="100" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="100" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="100" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="100" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="100" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="100"/>
+    <col min="5" max="5" width="23.140625" style="100" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14990,21 +14955,21 @@
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-2200-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-2200-000003000000}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-2200-000004000000}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-2200-000005000000}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-2200-000006000000}"/>
-    <hyperlink ref="E12" r:id="rId8" display="Password@123" xr:uid="{00000000-0004-0000-2200-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{00000000-0004-0000-2200-000009000000}"/>
-    <hyperlink ref="E15" r:id="rId10" xr:uid="{00000000-0004-0000-2200-00000A000000}"/>
-    <hyperlink ref="E16" r:id="rId11" xr:uid="{00000000-0004-0000-2200-00000B000000}"/>
-    <hyperlink ref="E17" r:id="rId12" xr:uid="{00000000-0004-0000-2200-00000C000000}"/>
-    <hyperlink ref="D12" r:id="rId13" xr:uid="{7B0D4B63-8C70-4C7B-ACFC-1E808EF0F841}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{2AD454AE-029C-4BE2-AD09-17E8FCF5C0EC}"/>
-    <hyperlink ref="E13" r:id="rId15" display="Password@123" xr:uid="{5A44753A-FDC6-4D60-9356-79CA8762E6B8}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8" display="Password@123"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="E16" r:id="rId11"/>
+    <hyperlink ref="E17" r:id="rId12"/>
+    <hyperlink ref="D12" r:id="rId13"/>
+    <hyperlink ref="D13" r:id="rId14"/>
+    <hyperlink ref="E13" r:id="rId15" display="Password@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
@@ -15012,15 +14977,15 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15127,22 +15092,22 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15216,28 +15181,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15280,27 +15245,27 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15381,30 +15346,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="77"/>
+    <col min="8" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15576,38 +15541,38 @@
     <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15697,7 +15662,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15705,26 +15670,26 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15803,19 +15768,19 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -15832,7 +15797,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.5" customHeight="1">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -15843,7 +15808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="115" customFormat="1" ht="24.5" customHeight="1">
+    <row r="3" spans="1:4" s="115" customFormat="1" ht="24.6" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -15860,31 +15825,31 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -15990,7 +15955,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="16">
         <v>8</v>
       </c>
@@ -16329,17 +16294,17 @@
     <cfRule type="duplicateValues" dxfId="6" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-2A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -16348,7 +16313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16358,28 +16323,28 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" style="125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.54296875" style="125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7265625" style="125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" style="125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" style="125" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="125"/>
+    <col min="12" max="12" width="20.85546875" style="125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -16878,7 +16843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="30">
       <c r="A9" s="119">
         <v>23</v>
       </c>
@@ -16940,7 +16905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="119">
         <v>24</v>
       </c>
@@ -17351,21 +17316,21 @@
     <cfRule type="duplicateValues" dxfId="0" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{00000000-0002-0000-2B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11" xr:uid="{00000000-0002-0000-2B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{00000000-0002-0000-2B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{00000000-0002-0000-2B00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{07E0AD4C-BB5A-49D2-8211-F59E9B02439D}"/>
+    <hyperlink ref="F7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17373,21 +17338,21 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -17477,19 +17442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -17681,21 +17646,21 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -17785,21 +17750,21 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -17889,16 +17854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18262,20 +18227,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="50"/>
+    <col min="5" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18654,7 +18619,7 @@
     <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18663,21 +18628,21 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18767,21 +18732,21 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18871,21 +18836,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18965,21 +18930,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="15.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -19028,29 +18993,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="36"/>
+    <col min="13" max="13" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -19184,10 +19149,10 @@
     <cfRule type="duplicateValues" dxfId="65" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19196,25 +19161,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -19312,13 +19277,13 @@
     <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19336,15 +19301,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19493,6 +19449,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
@@ -19502,23 +19467,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19535,4 +19483,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/jdgroupUPDATEFINAL.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="693">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1911,9 +1911,6 @@
     <t>icEmailWishlistverification</t>
   </si>
   <si>
-    <t>Invalid login creditials_No Username</t>
-  </si>
-  <si>
     <t>Samsung Toner D105L#Bluetooth Music Receiver</t>
   </si>
   <si>
@@ -2218,6 +2215,9 @@
   </si>
   <si>
     <t>Access#3</t>
+  </si>
+  <si>
+    <t>Invalid_login_creditials_No_Username</t>
   </si>
 </sst>
 </file>
@@ -2795,37 +2795,7 @@
     <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="92">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4046,13 +4016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F72"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4129,10 +4099,10 @@
         <v>301</v>
       </c>
       <c r="R1" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="S1" s="148" t="s">
         <v>682</v>
-      </c>
-      <c r="S1" s="148" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30">
@@ -4152,7 +4122,7 @@
         <v>502</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>108</v>
@@ -4192,7 +4162,7 @@
         <v>502</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>108</v>
@@ -4233,7 +4203,7 @@
         <v>502</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="129" t="s">
         <v>108</v>
@@ -4272,7 +4242,7 @@
         <v>502</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="129" t="s">
         <v>108</v>
@@ -4313,7 +4283,7 @@
         <v>502</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>108</v>
@@ -4354,7 +4324,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="129" t="s">
         <v>86</v>
@@ -4393,7 +4363,7 @@
         <v>502</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="129" t="s">
         <v>86</v>
@@ -4432,7 +4402,7 @@
         <v>502</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="129" t="s">
         <v>86</v>
@@ -4469,7 +4439,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="129" t="s">
         <v>86</v>
@@ -4508,7 +4478,7 @@
         <v>196</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>86</v>
@@ -4547,7 +4517,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="129" t="s">
         <v>86</v>
@@ -4586,7 +4556,7 @@
         <v>196</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>86</v>
@@ -4625,7 +4595,7 @@
         <v>196</v>
       </c>
       <c r="F14" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="129" t="s">
         <v>86</v>
@@ -4664,7 +4634,7 @@
         <v>196</v>
       </c>
       <c r="F15" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>86</v>
@@ -4703,7 +4673,7 @@
         <v>196</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="129" t="s">
         <v>154</v>
@@ -4746,7 +4716,7 @@
         <v>196</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="129" t="s">
         <v>154</v>
@@ -4789,7 +4759,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="129" t="s">
         <v>154</v>
@@ -4832,7 +4802,7 @@
         <v>196</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="129" t="s">
         <v>154</v>
@@ -4875,7 +4845,7 @@
         <v>196</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="129" t="s">
         <v>154</v>
@@ -4918,7 +4888,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="129" t="s">
         <v>154</v>
@@ -4959,7 +4929,7 @@
       </c>
       <c r="E22" s="127"/>
       <c r="F22" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="129" t="s">
         <v>108</v>
@@ -4989,7 +4959,7 @@
       </c>
       <c r="E23" s="127"/>
       <c r="F23" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="129" t="s">
         <v>108</v>
@@ -5019,7 +4989,7 @@
       </c>
       <c r="E24" s="127"/>
       <c r="F24" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="129" t="s">
         <v>108</v>
@@ -5049,7 +5019,7 @@
       </c>
       <c r="E25" s="127"/>
       <c r="F25" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="129" t="s">
         <v>108</v>
@@ -5079,7 +5049,7 @@
       </c>
       <c r="E26" s="127"/>
       <c r="F26" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="129" t="s">
         <v>108</v>
@@ -5109,7 +5079,7 @@
       </c>
       <c r="E27" s="127"/>
       <c r="F27" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="129" t="s">
         <v>31</v>
@@ -5155,7 +5125,7 @@
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="129" t="s">
         <v>31</v>
@@ -5201,7 +5171,7 @@
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="129" t="s">
         <v>31</v>
@@ -5237,17 +5207,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C30" s="71" t="s">
         <v>261</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E30" s="128"/>
       <c r="F30" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="129" t="s">
         <v>31</v>
@@ -5283,17 +5253,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C31" s="71" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="127" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="129" t="s">
         <v>31</v>
@@ -5305,7 +5275,7 @@
         <v>32</v>
       </c>
       <c r="J31" s="130" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K31" s="130" t="s">
         <v>268</v>
@@ -5327,7 +5297,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="143">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B32" s="127" t="s">
         <v>514</v>
@@ -5340,50 +5310,60 @@
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="129" t="s">
+      <c r="M32" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="130" t="s">
+      <c r="N32" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="130" t="s">
-        <v>298</v>
-      </c>
-      <c r="K32" s="130" t="s">
+      <c r="O32" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="L32" s="130" t="s">
+      <c r="P32" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="M32" s="129"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="143">
-        <v>31</v>
+      <c r="A33" s="61">
+        <v>32</v>
       </c>
       <c r="B33" s="127" t="s">
-        <v>514</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>270</v>
+        <v>546</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>261</v>
       </c>
       <c r="D33" s="127" t="s">
-        <v>514</v>
-      </c>
-      <c r="E33" s="128"/>
+        <v>546</v>
+      </c>
+      <c r="E33" s="128" t="s">
+        <v>196</v>
+      </c>
       <c r="F33" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="129" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>155</v>
       </c>
       <c r="H33" s="129" t="s">
         <v>57</v>
@@ -5395,198 +5375,190 @@
         <v>33</v>
       </c>
       <c r="K33" s="129" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c r="L33" s="129" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M33" s="129" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="N33" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="O33" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="P33" s="130" t="s">
-        <v>210</v>
-      </c>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="61">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C34" s="70" t="s">
         <v>261</v>
       </c>
       <c r="D34" s="127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E34" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="130" t="s">
+      <c r="I34" s="127" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="130" t="s">
+      <c r="K34" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="129" t="s">
+      <c r="L34" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="129" t="s">
+      <c r="M34" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="129" t="s">
+      <c r="N34" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="130" t="s">
+      <c r="O34" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="O34" s="127"/>
       <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="61">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="127" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D35" s="127" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E35" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F35" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="130" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H35" s="130" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="127" t="s">
-        <v>198</v>
+        <v>32</v>
+      </c>
+      <c r="I35" s="130" t="s">
+        <v>33</v>
       </c>
       <c r="J35" s="130" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="K35" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M35" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="129" t="s">
+      <c r="L35" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="O35" s="130" t="s">
+      <c r="M35" s="130" t="s">
         <v>195</v>
       </c>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
       <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="61">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D36" s="127" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E36" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="130" t="s">
-        <v>155</v>
-      </c>
-      <c r="H36" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="130" t="s">
+      <c r="K36" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="K36" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" s="130" t="s">
-        <v>195</v>
-      </c>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
       <c r="N36" s="127"/>
       <c r="O36" s="127"/>
       <c r="P36" s="127"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="61">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="127" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C37" s="70" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="127" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E37" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F37" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="129" t="s">
+      <c r="I37" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="I37" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="130" t="s">
+      <c r="J37" s="127" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="130" t="s">
+      <c r="L37" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="127"/>
       <c r="M37" s="127"/>
       <c r="N37" s="127"/>
       <c r="O37" s="127"/>
@@ -5594,41 +5566,33 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="61">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="127" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D38" s="127" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E38" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F38" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="130" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="129" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="127" t="s">
-        <v>198</v>
-      </c>
-      <c r="K38" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="130" t="s">
-        <v>33</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G38" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="132" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" s="129"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
       <c r="M38" s="127"/>
       <c r="N38" s="127"/>
       <c r="O38" s="127"/>
@@ -5636,22 +5600,22 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="61">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C39" s="70" t="s">
         <v>274</v>
       </c>
       <c r="D39" s="127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E39" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F39" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="132" t="s">
         <v>86</v>
@@ -5669,53 +5633,74 @@
       <c r="P39" s="127"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="61">
-        <v>38</v>
-      </c>
-      <c r="B40" s="127" t="s">
-        <v>540</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="127" t="s">
-        <v>540</v>
-      </c>
-      <c r="E40" s="128" t="s">
-        <v>196</v>
-      </c>
+      <c r="A40" s="145">
+        <v>39</v>
+      </c>
+      <c r="B40" s="134" t="s">
+        <v>515</v>
+      </c>
+      <c r="C40" s="70"/>
+      <c r="D40" s="134" t="s">
+        <v>515</v>
+      </c>
+      <c r="E40" s="128"/>
       <c r="F40" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="132" t="s">
+        <v>577</v>
+      </c>
+      <c r="I40" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="132" t="s">
-        <v>275</v>
-      </c>
-      <c r="I40" s="129"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
+      <c r="N40" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="O40" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q40" s="138" t="s">
+        <v>298</v>
+      </c>
+      <c r="R40" s="130" t="s">
+        <v>195</v>
+      </c>
+      <c r="S40" s="132" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="145">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="134" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C41" s="70"/>
       <c r="D41" s="134" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E41" s="128"/>
       <c r="F41" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>154</v>
@@ -5759,18 +5744,18 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="145">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="134" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C42" s="70"/>
       <c r="D42" s="134" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E42" s="128"/>
       <c r="F42" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>154</v>
@@ -5813,79 +5798,53 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="145">
-        <v>41</v>
-      </c>
-      <c r="B43" s="134" t="s">
-        <v>517</v>
+      <c r="A43" s="63">
+        <v>42</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>518</v>
       </c>
       <c r="C43" s="70"/>
-      <c r="D43" s="134" t="s">
-        <v>517</v>
-      </c>
-      <c r="E43" s="128"/>
+      <c r="D43" s="133" t="s">
+        <v>518</v>
+      </c>
+      <c r="E43" s="128" t="s">
+        <v>196</v>
+      </c>
       <c r="F43" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43" s="132" t="s">
-        <v>577</v>
-      </c>
-      <c r="I43" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="N43" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="O43" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="P43" s="115" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q43" s="138" t="s">
-        <v>298</v>
-      </c>
-      <c r="R43" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="S43" s="132" t="s">
-        <v>210</v>
-      </c>
+      <c r="G43" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="133"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="63">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C44" s="70"/>
       <c r="D44" s="133" t="s">
-        <v>518</v>
-      </c>
-      <c r="E44" s="128" t="s">
-        <v>196</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="E44" s="128"/>
       <c r="F44" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="133"/>
@@ -5899,22 +5858,24 @@
       <c r="Q44" s="133"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="63">
-        <v>43</v>
+      <c r="A45" s="64">
+        <v>44</v>
       </c>
       <c r="B45" s="133" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="C45" s="70"/>
       <c r="D45" s="133" t="s">
-        <v>519</v>
-      </c>
-      <c r="E45" s="128"/>
+        <v>283</v>
+      </c>
+      <c r="E45" s="128" t="s">
+        <v>196</v>
+      </c>
       <c r="F45" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="133"/>
@@ -5928,24 +5889,24 @@
       <c r="Q45" s="133"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="64">
-        <v>44</v>
-      </c>
-      <c r="B46" s="133" t="s">
-        <v>539</v>
+      <c r="A46" s="63">
+        <v>45</v>
+      </c>
+      <c r="B46" s="136" t="s">
+        <v>520</v>
       </c>
       <c r="C46" s="70"/>
-      <c r="D46" s="133" t="s">
-        <v>283</v>
+      <c r="D46" s="136" t="s">
+        <v>284</v>
       </c>
       <c r="E46" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F46" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="133" t="s">
-        <v>289</v>
+        <v>9</v>
+      </c>
+      <c r="G46" s="136" t="s">
+        <v>290</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="133"/>
@@ -5959,52 +5920,66 @@
       <c r="Q46" s="133"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="63">
-        <v>45</v>
-      </c>
-      <c r="B47" s="136" t="s">
-        <v>520</v>
+      <c r="A47" s="65">
+        <v>46</v>
+      </c>
+      <c r="B47" s="134" t="s">
+        <v>521</v>
       </c>
       <c r="C47" s="70"/>
-      <c r="D47" s="136" t="s">
-        <v>284</v>
+      <c r="D47" s="134" t="s">
+        <v>521</v>
       </c>
       <c r="E47" s="128" t="s">
         <v>196</v>
       </c>
       <c r="F47" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="133"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="133"/>
-      <c r="O47" s="133"/>
-      <c r="P47" s="133"/>
-      <c r="Q47" s="133"/>
+        <v>9</v>
+      </c>
+      <c r="G47" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="132" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" s="132" t="s">
+        <v>292</v>
+      </c>
+      <c r="J47" s="132" t="s">
+        <v>293</v>
+      </c>
+      <c r="K47" s="132" t="s">
+        <v>294</v>
+      </c>
+      <c r="L47" s="132" t="s">
+        <v>295</v>
+      </c>
+      <c r="M47" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="O47" s="132" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="65">
-        <v>46</v>
-      </c>
-      <c r="B48" s="134" t="s">
-        <v>521</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="137" t="s">
+        <v>419</v>
       </c>
       <c r="C48" s="70"/>
       <c r="D48" s="134" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="E48" s="128" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="F48" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="132" t="s">
         <v>154</v>
@@ -6024,94 +5999,73 @@
       <c r="L48" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="M48" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="N48" s="132" t="s">
-        <v>285</v>
-      </c>
-      <c r="O48" s="132" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="65">
-        <v>47</v>
+      <c r="A49" s="62">
+        <v>48</v>
       </c>
       <c r="B49" s="137" t="s">
-        <v>419</v>
+        <v>538</v>
       </c>
       <c r="C49" s="70"/>
-      <c r="D49" s="134" t="s">
-        <v>431</v>
-      </c>
-      <c r="E49" s="128" t="s">
-        <v>136</v>
-      </c>
+      <c r="D49" s="137" t="s">
+        <v>538</v>
+      </c>
+      <c r="E49" s="128"/>
       <c r="F49" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="132" t="s">
-        <v>291</v>
-      </c>
-      <c r="I49" s="132" t="s">
-        <v>292</v>
-      </c>
-      <c r="J49" s="132" t="s">
-        <v>293</v>
-      </c>
-      <c r="K49" s="132" t="s">
-        <v>294</v>
-      </c>
-      <c r="L49" s="132" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="62">
-        <v>48</v>
-      </c>
-      <c r="B50" s="137" t="s">
-        <v>538</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="137" t="s">
-        <v>538</v>
-      </c>
-      <c r="E50" s="128"/>
+        <v>296</v>
+      </c>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="135"/>
+    </row>
+    <row r="50" spans="1:16" s="57" customFormat="1">
+      <c r="A50" s="66">
+        <v>49</v>
+      </c>
+      <c r="B50" s="126" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" s="69">
+        <v>215</v>
+      </c>
+      <c r="D50" s="126" t="s">
+        <v>522</v>
+      </c>
+      <c r="E50" s="128" t="s">
+        <v>502</v>
+      </c>
       <c r="F50" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="135"/>
+        <v>9</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" s="126"/>
     </row>
     <row r="51" spans="1:16" s="57" customFormat="1">
       <c r="A51" s="66">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="126" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C51" s="69">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D51" s="126" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E51" s="128" t="s">
         <v>502</v>
       </c>
       <c r="F51" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>297</v>
@@ -6120,123 +6074,135 @@
     </row>
     <row r="52" spans="1:16" s="57" customFormat="1">
       <c r="A52" s="66">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="126" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C52" s="69">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D52" s="126" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E52" s="128" t="s">
         <v>502</v>
       </c>
       <c r="F52" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>297</v>
       </c>
       <c r="H52" s="126"/>
     </row>
-    <row r="53" spans="1:16" s="57" customFormat="1">
-      <c r="A53" s="66">
-        <v>51</v>
-      </c>
-      <c r="B53" s="126" t="s">
-        <v>524</v>
-      </c>
-      <c r="C53" s="69">
-        <v>217</v>
-      </c>
-      <c r="D53" s="126" t="s">
-        <v>524</v>
-      </c>
-      <c r="E53" s="128" t="s">
-        <v>502</v>
+    <row r="53" spans="1:16" s="133" customFormat="1">
+      <c r="A53" s="64">
+        <v>52</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="133" t="s">
+        <v>537</v>
+      </c>
+      <c r="E53" s="133" t="s">
+        <v>136</v>
       </c>
       <c r="F53" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="H53" s="126"/>
+        <v>9</v>
+      </c>
+      <c r="G53" s="132" t="s">
+        <v>408</v>
+      </c>
+      <c r="H53" s="132" t="s">
+        <v>409</v>
+      </c>
+      <c r="I53" s="132" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="54" spans="1:16" s="133" customFormat="1">
       <c r="A54" s="64">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C54" s="64"/>
       <c r="D54" s="133" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E54" s="133" t="s">
         <v>136</v>
       </c>
       <c r="F54" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" s="132" t="s">
         <v>408</v>
       </c>
       <c r="H54" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="132" t="s">
         <v>409</v>
       </c>
-      <c r="I54" s="132" t="s">
+      <c r="J54" s="132" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="133" customFormat="1">
-      <c r="A55" s="64">
-        <v>53</v>
-      </c>
-      <c r="B55" s="133" t="s">
-        <v>536</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="133" t="s">
-        <v>536</v>
-      </c>
-      <c r="E55" s="133" t="s">
-        <v>136</v>
-      </c>
+    <row r="55" spans="1:16">
+      <c r="A55" s="69">
+        <v>54</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="E55" s="57"/>
       <c r="F55" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="H55" s="132" t="s">
+      <c r="H55" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="132" t="s">
-        <v>409</v>
-      </c>
-      <c r="J55" s="132" t="s">
-        <v>410</v>
-      </c>
+      <c r="K55" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="127"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="69">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="67" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>408</v>
@@ -6250,29 +6216,26 @@
       <c r="J56" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="58" t="s">
-        <v>576</v>
-      </c>
+      <c r="K56" s="57"/>
       <c r="L56" s="57"/>
       <c r="M56" s="57"/>
       <c r="N56" s="57"/>
       <c r="O56" s="57"/>
-      <c r="P56" s="127"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="69">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="67" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="58" t="s">
         <v>408</v>
@@ -6286,7 +6249,9 @@
       <c r="J57" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K57" s="57"/>
+      <c r="K57" s="58" t="s">
+        <v>409</v>
+      </c>
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
       <c r="N57" s="57"/>
@@ -6294,34 +6259,32 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="69">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="69"/>
+      <c r="C58" s="69">
+        <v>265</v>
+      </c>
       <c r="D58" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="E58" s="57"/>
+      <c r="E58" s="68" t="s">
+        <v>502</v>
+      </c>
       <c r="F58" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" s="58" t="s">
-        <v>408</v>
+        <v>154</v>
       </c>
       <c r="H58" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="J58" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="58" t="s">
-        <v>409</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
       <c r="N58" s="57"/>
@@ -6329,13 +6292,13 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="69">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>618</v>
       </c>
       <c r="C59" s="69">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D59" s="67" t="s">
         <v>618</v>
@@ -6344,15 +6307,15 @@
         <v>502</v>
       </c>
       <c r="F59" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>154</v>
+        <v>577</v>
       </c>
       <c r="H59" s="58" t="s">
-        <v>577</v>
-      </c>
-      <c r="I59" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="I59" s="67"/>
       <c r="J59" s="57"/>
       <c r="K59" s="57"/>
       <c r="L59" s="57"/>
@@ -6362,13 +6325,13 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="69">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="67" t="s">
         <v>619</v>
       </c>
       <c r="C60" s="69">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D60" s="67" t="s">
         <v>619</v>
@@ -6377,7 +6340,7 @@
         <v>502</v>
       </c>
       <c r="F60" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>577</v>
@@ -6385,7 +6348,7 @@
       <c r="H60" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="67"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="57"/>
       <c r="K60" s="57"/>
       <c r="L60" s="57"/>
@@ -6395,13 +6358,13 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="69">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="67" t="s">
         <v>620</v>
       </c>
       <c r="C61" s="69">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>620</v>
@@ -6410,13 +6373,13 @@
         <v>502</v>
       </c>
       <c r="F61" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>577</v>
-      </c>
-      <c r="H61" s="58" t="s">
         <v>31</v>
+      </c>
+      <c r="H61" s="67" t="s">
+        <v>578</v>
       </c>
       <c r="I61" s="57"/>
       <c r="J61" s="57"/>
@@ -6428,14 +6391,12 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="69">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="C62" s="69">
-        <v>270</v>
-      </c>
+      <c r="C62" s="69"/>
       <c r="D62" s="67" t="s">
         <v>621</v>
       </c>
@@ -6443,13 +6404,13 @@
         <v>502</v>
       </c>
       <c r="F62" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H62" s="67" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I62" s="57"/>
       <c r="J62" s="57"/>
@@ -6461,27 +6422,27 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="69">
-        <v>61</v>
-      </c>
-      <c r="B63" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="72" t="s">
         <v>622</v>
       </c>
-      <c r="C63" s="69"/>
+      <c r="C63" s="69">
+        <v>305</v>
+      </c>
       <c r="D63" s="67" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="E63" s="68" t="s">
-        <v>502</v>
+        <v>196</v>
       </c>
       <c r="F63" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="67" t="s">
-        <v>579</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="H63" s="57"/>
       <c r="I63" s="57"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
@@ -6492,10 +6453,10 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="69">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
       <c r="C64" s="69">
         <v>305</v>
@@ -6507,7 +6468,7 @@
         <v>196</v>
       </c>
       <c r="F64" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="58" t="s">
         <v>581</v>
@@ -6521,58 +6482,55 @@
       <c r="N64" s="57"/>
       <c r="O64" s="57"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:12">
       <c r="A65" s="69">
-        <v>63</v>
-      </c>
-      <c r="B65" s="72" t="s">
-        <v>590</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="73" t="s">
+        <v>623</v>
       </c>
       <c r="C65" s="69">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D65" s="67" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="E65" s="68" t="s">
         <v>196</v>
       </c>
       <c r="F65" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H65" s="57"/>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="69">
-        <v>64</v>
-      </c>
-      <c r="B66" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="67" t="s">
         <v>624</v>
       </c>
       <c r="C66" s="69">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D66" s="67" t="s">
         <v>624</v>
       </c>
-      <c r="E66" s="68" t="s">
+      <c r="E66" s="67" t="s">
         <v>196</v>
       </c>
       <c r="F66" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="58" t="s">
-        <v>582</v>
+        <v>9</v>
+      </c>
+      <c r="G66" s="57" t="s">
+        <v>583</v>
       </c>
       <c r="H66" s="57"/>
       <c r="I66" s="57"/>
@@ -6580,15 +6538,15 @@
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:12">
       <c r="A67" s="69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="67" t="s">
         <v>625</v>
       </c>
       <c r="C67" s="69">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D67" s="67" t="s">
         <v>625</v>
@@ -6597,10 +6555,10 @@
         <v>196</v>
       </c>
       <c r="F67" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="57" t="s">
-        <v>583</v>
+        <v>9</v>
+      </c>
+      <c r="G67" s="68" t="s">
+        <v>584</v>
       </c>
       <c r="H67" s="57"/>
       <c r="I67" s="57"/>
@@ -6608,15 +6566,15 @@
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:12">
       <c r="A68" s="69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="67" t="s">
         <v>626</v>
       </c>
       <c r="C68" s="69">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D68" s="67" t="s">
         <v>626</v>
@@ -6625,174 +6583,137 @@
         <v>196</v>
       </c>
       <c r="F68" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="H68" s="57"/>
+      <c r="H68" s="67" t="s">
+        <v>585</v>
+      </c>
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:12">
       <c r="A69" s="69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="67" t="s">
         <v>627</v>
       </c>
       <c r="C69" s="69">
-        <v>318</v>
-      </c>
-      <c r="D69" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69" s="126" t="s">
         <v>627</v>
       </c>
       <c r="E69" s="67" t="s">
         <v>196</v>
       </c>
       <c r="F69" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="57" t="s">
-        <v>584</v>
-      </c>
-      <c r="H69" s="67" t="s">
-        <v>585</v>
-      </c>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
+        <v>9</v>
+      </c>
+      <c r="G69" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="58"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:12">
       <c r="A70" s="69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>628</v>
       </c>
       <c r="C70" s="69">
-        <v>331</v>
-      </c>
-      <c r="D70" s="126" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="67" t="s">
         <v>628</v>
       </c>
-      <c r="E70" s="67" t="s">
-        <v>196</v>
-      </c>
+      <c r="E70" s="57"/>
       <c r="F70" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="58"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
+      <c r="H70" s="57" t="s">
+        <v>586</v>
+      </c>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57"/>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="69">
-        <v>69</v>
+    <row r="71" spans="1:12">
+      <c r="A71" s="66">
+        <v>70</v>
       </c>
       <c r="B71" s="67" t="s">
         <v>629</v>
       </c>
       <c r="C71" s="69">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="E71" s="57"/>
+      <c r="E71" s="68" t="s">
+        <v>587</v>
+      </c>
       <c r="F71" s="127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="I71" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="J71" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="66">
-        <v>70</v>
-      </c>
-      <c r="B72" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="C72" s="69">
-        <v>265</v>
-      </c>
-      <c r="D72" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="E72" s="68" t="s">
-        <v>587</v>
-      </c>
-      <c r="F72" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="H72" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="I72" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="J72" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K72" s="58" t="s">
+      <c r="K71" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="L72" s="58" t="s">
+      <c r="L71" s="58" t="s">
         <v>589</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B54:B55">
-    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
+  <conditionalFormatting sqref="B53:B54">
+    <cfRule type="duplicateValues" dxfId="91" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B50 B1:B31 B56:B1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="92" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="91" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B53">
-    <cfRule type="duplicateValues" dxfId="90" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="89" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A55 A2:A31 A34:A50">
-    <cfRule type="duplicateValues" dxfId="88" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="duplicateValues" dxfId="87" priority="6"/>
+  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B1048576">
+    <cfRule type="duplicateValues" dxfId="90" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="85" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B52">
+    <cfRule type="duplicateValues" dxfId="87" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="duplicateValues" dxfId="86" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
+    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="84" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
     <cfRule type="duplicateValues" dxfId="83" priority="2"/>
@@ -6889,81 +6810,81 @@
     <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
     <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
     <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G33" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento"/>
     <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
     <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K33" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="P33" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H38" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H34" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="K34" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="L34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="M34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="N34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="H35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="J35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L35" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="M36" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
     <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="H49" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
     <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="I49" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
     <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="J49" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
     <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G49" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G50" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
-    <hyperlink ref="G41" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G42:G43" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="M41:M43" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="H55" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="M48" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N48" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
-    <hyperlink ref="O48" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
-    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="L49" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="M40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
     <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="K49" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
     <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="G40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
     <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G54:G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G36" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="H36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="J36" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="K36" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="L36" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="G37" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
-    <hyperlink ref="I37" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="J37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K38" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I38" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
-    <hyperlink ref="K37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L38" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
     <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
-    <hyperlink ref="H40" location="'giftCardReport++'!A1" display="giftCardReport"/>
-    <hyperlink ref="G51" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
-    <hyperlink ref="G51:G53" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
     <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
     <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
     <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
@@ -6981,63 +6902,59 @@
     <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
     <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
     <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
     <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="K56" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
     <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J58" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="K58" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="G59" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
     <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H59" location="'ClearCart++'!A1" display="ClearCart"/>
-    <hyperlink ref="H61" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G60:G61" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G63" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
     <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J72" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G72" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H72" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I72" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="K72" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
-    <hyperlink ref="L72" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
-    <hyperlink ref="G57:G58" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H57:H58" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I57:I58" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
-    <hyperlink ref="G65" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
-    <hyperlink ref="G71" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G32" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="I32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="K32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="H41" location="'ClearCart++'!A1" display="ClearCart++"/>
-    <hyperlink ref="I41" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="I42:I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H42:H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
     <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K43" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J43" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="J41:J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L43" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L41:L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M42" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
     <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N43" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="O43" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O41:O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="Q40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
     <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="Q43" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="R41" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="R42:R43" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S40" location="'SapCustomer++'!A1" display="SapCustomer"/>
     <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="S43" location="'SapCustomer++'!A1" display="SapCustomer"/>
     <hyperlink ref="J31" location="'ic_CashDepositPayment++'!A1" display="ic_CashDepositPayment"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8106,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -8156,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -9836,7 +9753,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>87</v>
@@ -9847,7 +9764,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C5" s="85" t="s">
         <v>87</v>
@@ -9858,7 +9775,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="85" t="s">
         <v>87</v>
@@ -9869,7 +9786,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C7" s="85" t="s">
         <v>87</v>
@@ -10666,16 +10583,16 @@
         <v>397</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>76</v>
@@ -10687,16 +10604,16 @@
         <v>73</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>674</v>
-      </c>
       <c r="O2" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1">
@@ -10866,13 +10783,13 @@
         <v>397</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="25" t="s">
         <v>685</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>686</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>74</v>
@@ -10881,22 +10798,22 @@
         <v>76</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>73</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="O6" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>689</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
@@ -10916,16 +10833,16 @@
         <v>397</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G7" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>656</v>
-      </c>
       <c r="I7" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>76</v>
@@ -10934,19 +10851,19 @@
         <v>73</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>654</v>
-      </c>
       <c r="N7" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O7" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="P7" s="141" t="s">
         <v>658</v>
-      </c>
-      <c r="P7" s="141" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -12648,7 +12565,7 @@
         <v>225504</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12665,7 +12582,7 @@
         <v>225504</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12682,7 +12599,7 @@
         <v>225504</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12699,7 +12616,7 @@
         <v>225504</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12767,7 +12684,7 @@
         <v>225504</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12784,7 +12701,7 @@
         <v>225564</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12920,7 +12837,7 @@
         <v>225504</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -12988,7 +12905,7 @@
         <v>225504</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -13005,7 +12922,7 @@
         <v>225504</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -13108,7 +13025,7 @@
         <v>225504</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -13125,7 +13042,7 @@
         <v>225504</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -13413,7 +13330,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>87</v>
@@ -13427,7 +13344,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>87</v>
@@ -13441,7 +13358,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="80">
         <v>1</v>
@@ -13455,7 +13372,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C7" s="80">
         <v>2</v>
@@ -13469,7 +13386,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C8" s="80">
         <v>1</v>
@@ -13553,7 +13470,7 @@
         <v>571</v>
       </c>
       <c r="K1" s="150" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13570,7 +13487,7 @@
         <v>147</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>402</v>
@@ -13698,7 +13615,7 @@
         <v>147</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>402</v>
@@ -13730,7 +13647,7 @@
         <v>147</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>406</v>
@@ -13826,7 +13743,7 @@
         <v>147</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>406</v>
@@ -13858,7 +13775,7 @@
         <v>147</v>
       </c>
       <c r="E11" s="117" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>402</v>
@@ -13945,7 +13862,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" s="89" t="s">
         <v>87</v>
@@ -13954,7 +13871,7 @@
         <v>147</v>
       </c>
       <c r="E14" s="89" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F14" s="89" t="s">
         <v>406</v>
@@ -13977,7 +13894,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C15" s="89" t="s">
         <v>87</v>
@@ -13986,7 +13903,7 @@
         <v>147</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F15" s="89" t="s">
         <v>406</v>
@@ -13995,7 +13912,7 @@
         <v>407</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I15" s="89" t="s">
         <v>310</v>
@@ -14009,7 +13926,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C16" s="89">
         <v>1</v>
@@ -14018,7 +13935,7 @@
         <v>147</v>
       </c>
       <c r="E16" s="89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F16" s="89" t="s">
         <v>406</v>
@@ -14041,7 +13958,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="89">
         <v>1</v>
@@ -14050,7 +13967,7 @@
         <v>147</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F17" s="89" t="s">
         <v>402</v>
@@ -14073,7 +13990,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C18" s="89">
         <v>1</v>
@@ -14082,7 +13999,7 @@
         <v>147</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F18" s="89" t="s">
         <v>402</v>
@@ -14105,7 +14022,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C19" s="89">
         <v>1</v>
@@ -14114,7 +14031,7 @@
         <v>147</v>
       </c>
       <c r="E19" s="89" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F19" s="89" t="s">
         <v>402</v>
@@ -14137,7 +14054,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C20" s="89">
         <v>1</v>
@@ -14146,7 +14063,7 @@
         <v>148</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F20" s="89" t="s">
         <v>402</v>
@@ -14155,7 +14072,7 @@
         <v>403</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I20" s="89">
         <v>6</v>
@@ -14169,7 +14086,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C21" s="89" t="s">
         <v>87</v>
@@ -14178,13 +14095,13 @@
         <v>147</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F21" s="89" t="s">
         <v>406</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H21" s="89">
         <v>1</v>
@@ -14201,7 +14118,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C22" s="89">
         <v>1</v>
@@ -14210,13 +14127,13 @@
         <v>147</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F22" s="89" t="s">
         <v>406</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H22" s="89" t="s">
         <v>412</v>
@@ -14233,7 +14150,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>87</v>
@@ -14242,7 +14159,7 @@
         <v>147</v>
       </c>
       <c r="E23" s="89" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F23" s="89" t="s">
         <v>406</v>
@@ -14335,10 +14252,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="93" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="93" t="s">
         <v>603</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>604</v>
       </c>
       <c r="F1" s="93" t="s">
         <v>421</v>
@@ -14349,16 +14266,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C2" s="93" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="93" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2" s="92" t="s">
         <v>605</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>606</v>
       </c>
       <c r="F2" s="93">
         <v>11</v>
@@ -14852,10 +14769,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14869,10 +14786,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14897,7 +14814,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C15" s="98">
         <v>1</v>
@@ -14914,7 +14831,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C16" s="98">
         <v>1</v>
@@ -14931,7 +14848,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C17" s="98">
         <v>1</v>
@@ -15000,7 +14917,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15008,7 +14925,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C2" s="104">
         <v>1</v>
@@ -15019,7 +14936,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C3" s="104">
         <v>1</v>
@@ -15030,7 +14947,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C4" s="104">
         <v>1</v>
@@ -15041,7 +14958,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C5" s="123">
         <v>1</v>
@@ -15121,13 +15038,13 @@
         <v>35</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E1" s="108" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="108" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G1" s="108" t="s">
         <v>83</v>
@@ -15147,7 +15064,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F2" s="108" t="s">
         <v>9</v>
@@ -15176,7 +15093,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -15216,10 +15133,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="113" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="113" t="s">
         <v>611</v>
-      </c>
-      <c r="E1" s="113" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15227,7 +15144,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C2" s="114">
         <v>1</v>
@@ -15294,7 +15211,7 @@
         <v>179</v>
       </c>
       <c r="I1" s="123" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J1" s="123" t="s">
         <v>173</v>
@@ -15311,7 +15228,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C2" s="123" t="s">
         <v>87</v>
@@ -15332,7 +15249,7 @@
         <v>299</v>
       </c>
       <c r="I2" s="123" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J2" s="123" t="s">
         <v>299</v>
@@ -15446,7 +15363,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C4" s="77" t="s">
         <v>87</v>
@@ -15469,7 +15386,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>87</v>
@@ -15492,7 +15409,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>87</v>
@@ -15515,7 +15432,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>87</v>
@@ -15816,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -15898,10 +15815,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>126</v>
@@ -15910,7 +15827,7 @@
         <v>128</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -15932,10 +15849,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>126</v>
@@ -15944,7 +15861,7 @@
         <v>128</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -15966,10 +15883,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>126</v>
@@ -15979,7 +15896,7 @@
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>127</v>
@@ -16379,7 +16296,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L1" s="91" t="s">
         <v>122</v>
@@ -16453,7 +16370,7 @@
         <v>94</v>
       </c>
       <c r="O2" s="122" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P2" s="117" t="s">
         <v>92</v>
@@ -16482,10 +16399,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F3" s="118" t="s">
         <v>126</v>
@@ -16503,7 +16420,7 @@
         <v>2222224</v>
       </c>
       <c r="K3" s="122" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L3" s="117" t="s">
         <v>115</v>
@@ -16515,7 +16432,7 @@
         <v>94</v>
       </c>
       <c r="O3" s="122" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P3" s="117" t="s">
         <v>92</v>
@@ -16606,10 +16523,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="117" t="s">
+        <v>643</v>
+      </c>
+      <c r="E5" s="117" t="s">
         <v>644</v>
-      </c>
-      <c r="E5" s="117" t="s">
-        <v>645</v>
       </c>
       <c r="F5" s="118" t="s">
         <v>126</v>
@@ -16627,7 +16544,7 @@
         <v>2222226</v>
       </c>
       <c r="K5" s="122" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L5" s="117" t="s">
         <v>115</v>
@@ -16639,7 +16556,7 @@
         <v>94</v>
       </c>
       <c r="O5" s="122" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P5" s="117" t="s">
         <v>92</v>
@@ -16668,10 +16585,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="117" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6" s="117" t="s">
         <v>646</v>
-      </c>
-      <c r="E6" s="117" t="s">
-        <v>647</v>
       </c>
       <c r="F6" s="118" t="s">
         <v>126</v>
@@ -16689,7 +16606,7 @@
         <v>2222227</v>
       </c>
       <c r="K6" s="122" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L6" s="117" t="s">
         <v>115</v>
@@ -16701,7 +16618,7 @@
         <v>94</v>
       </c>
       <c r="O6" s="122" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P6" s="117" t="s">
         <v>92</v>
@@ -16736,7 +16653,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>116</v>
@@ -16751,7 +16668,7 @@
         <v>2222227</v>
       </c>
       <c r="K7" s="122" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L7" s="117" t="s">
         <v>115</v>
@@ -18254,7 +18171,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -19301,6 +19218,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19449,15 +19375,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
@@ -19467,6 +19384,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19483,21 +19417,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>